--- a/reversi_othello/game_analysis.xlsx
+++ b/reversi_othello/game_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="936" yWindow="0" windowWidth="17256" windowHeight="7008"/>
+    <workbookView xWindow="2808" yWindow="0" windowWidth="17256" windowHeight="7008"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Weights Sim 2</t>
   </si>
@@ -60,6 +60,30 @@
   </si>
   <si>
     <t>Tie Game From Sim 3</t>
+  </si>
+  <si>
+    <t>The graphs and the weight matrices are indicative of the fact that a local optimum has been quickly reached</t>
+  </si>
+  <si>
+    <t>and the game has learned one of the best straategies, ie, it cannot still beat any possible intelligence thrown</t>
+  </si>
+  <si>
+    <t>at it.</t>
+  </si>
+  <si>
+    <t>The current method is to keep adjusting the weights after every game, at the positions where the winner played</t>
+  </si>
+  <si>
+    <t>increase the weight by 1 and at the other positions, decrease it by 1. Nothing to be done at tie positions</t>
+  </si>
+  <si>
+    <t>When one of the weights is played against a random player, the results are still equal, ie, the machine player using</t>
+  </si>
+  <si>
+    <t>learned wights shows no superiority over a random player.</t>
+  </si>
+  <si>
+    <t>More tweaking is required to incorporate the state of the game into updating the decisions.</t>
   </si>
 </sst>
 </file>
@@ -124,13 +148,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>175260</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>154305</xdr:rowOff>
@@ -174,13 +198,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>249060</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>5221</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>64171</xdr:rowOff>
@@ -224,13 +248,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>307620</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>94261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>212420</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>22861</xdr:rowOff>
@@ -274,13 +298,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>351779</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>91441</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
       <xdr:row>101</xdr:row>
       <xdr:rowOff>90497</xdr:rowOff>
@@ -324,13 +348,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>327660</xdr:colOff>
       <xdr:row>79</xdr:row>
       <xdr:rowOff>81915</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>482600</xdr:colOff>
       <xdr:row>90</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -374,13 +398,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>312421</xdr:colOff>
       <xdr:row>69</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>403861</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -424,13 +448,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>365760</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>1905</xdr:rowOff>
@@ -474,13 +498,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>236220</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>108585</xdr:rowOff>
@@ -524,13 +548,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>259080</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>144780</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>120015</xdr:rowOff>
@@ -574,13 +598,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>32</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>182880</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>26679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>106680</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>152409</xdr:rowOff>
@@ -614,6 +638,56 @@
         <a:xfrm>
           <a:off x="11155680" y="5513079"/>
           <a:ext cx="2362200" cy="1771650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>567267</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>313267</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84668</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3877C9-1616-4E33-B80D-500418E72D90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20074467" y="0"/>
+          <a:ext cx="7670800" cy="5113868"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -922,15 +996,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN609"/>
+  <dimension ref="A1:AI609"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" topLeftCell="AC15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AX39" sqref="AX39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -953,23 +1027,18 @@
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1018,32 +1087,32 @@
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="S2">
+        <v>412</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>-6</v>
+      </c>
+      <c r="V2">
+        <v>108</v>
+      </c>
+      <c r="W2">
+        <v>120</v>
+      </c>
       <c r="X2">
-        <v>412</v>
+        <v>148</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>-39</v>
       </c>
       <c r="Z2">
-        <v>-6</v>
-      </c>
-      <c r="AA2">
-        <v>108</v>
-      </c>
-      <c r="AB2">
-        <v>120</v>
-      </c>
-      <c r="AC2">
-        <v>148</v>
-      </c>
-      <c r="AD2">
-        <v>-39</v>
-      </c>
-      <c r="AE2">
         <v>424</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1092,32 +1161,32 @@
       <c r="Q3">
         <v>0</v>
       </c>
+      <c r="S3">
+        <v>-98</v>
+      </c>
+      <c r="T3">
+        <v>-124</v>
+      </c>
+      <c r="U3">
+        <v>-138</v>
+      </c>
+      <c r="V3">
+        <v>20</v>
+      </c>
+      <c r="W3">
+        <v>-96</v>
+      </c>
       <c r="X3">
-        <v>-98</v>
+        <v>-108</v>
       </c>
       <c r="Y3">
-        <v>-124</v>
+        <v>-219</v>
       </c>
       <c r="Z3">
-        <v>-138</v>
-      </c>
-      <c r="AA3">
-        <v>20</v>
-      </c>
-      <c r="AB3">
-        <v>-96</v>
-      </c>
-      <c r="AC3">
-        <v>-108</v>
-      </c>
-      <c r="AD3">
-        <v>-219</v>
-      </c>
-      <c r="AE3">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1166,32 +1235,32 @@
       <c r="Q4">
         <v>0</v>
       </c>
+      <c r="S4">
+        <v>59</v>
+      </c>
+      <c r="T4">
+        <v>28</v>
+      </c>
+      <c r="U4">
+        <v>214</v>
+      </c>
+      <c r="V4">
+        <v>-105</v>
+      </c>
+      <c r="W4">
+        <v>-212</v>
+      </c>
       <c r="X4">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="Y4">
-        <v>28</v>
+        <v>-144</v>
       </c>
       <c r="Z4">
-        <v>214</v>
-      </c>
-      <c r="AA4">
-        <v>-105</v>
-      </c>
-      <c r="AB4">
-        <v>-212</v>
-      </c>
-      <c r="AC4">
-        <v>191</v>
-      </c>
-      <c r="AD4">
-        <v>-144</v>
-      </c>
-      <c r="AE4">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0</v>
       </c>
@@ -1240,32 +1309,32 @@
       <c r="Q5">
         <v>0</v>
       </c>
+      <c r="S5">
+        <v>-121</v>
+      </c>
+      <c r="T5">
+        <v>-140</v>
+      </c>
+      <c r="U5">
+        <v>-23</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
       <c r="X5">
-        <v>-121</v>
+        <v>-207</v>
       </c>
       <c r="Y5">
-        <v>-140</v>
+        <v>-192</v>
       </c>
       <c r="Z5">
-        <v>-23</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>-207</v>
-      </c>
-      <c r="AD5">
-        <v>-192</v>
-      </c>
-      <c r="AE5">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1312,108 +1381,108 @@
         <v>0</v>
       </c>
       <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>275</v>
+      </c>
+      <c r="T6">
+        <v>-159</v>
+      </c>
+      <c r="U6">
+        <v>-225</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
         <v>275</v>
       </c>
       <c r="Y6">
-        <v>-159</v>
+        <v>-106</v>
       </c>
       <c r="Z6">
-        <v>-225</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>275</v>
-      </c>
-      <c r="AD6">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>52</v>
+      </c>
+      <c r="T7">
+        <v>6</v>
+      </c>
+      <c r="U7">
+        <v>79</v>
+      </c>
+      <c r="V7">
+        <v>-222</v>
+      </c>
+      <c r="W7">
+        <v>-126</v>
+      </c>
+      <c r="X7">
         <v>-106</v>
       </c>
-      <c r="AE6">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>52</v>
-      </c>
       <c r="Y7">
-        <v>6</v>
+        <v>-97</v>
       </c>
       <c r="Z7">
-        <v>79</v>
-      </c>
-      <c r="AA7">
-        <v>-222</v>
-      </c>
-      <c r="AB7">
-        <v>-126</v>
-      </c>
-      <c r="AC7">
-        <v>-106</v>
-      </c>
-      <c r="AD7">
-        <v>-97</v>
-      </c>
-      <c r="AE7">
         <v>-42</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1462,32 +1531,32 @@
       <c r="Q8">
         <v>0</v>
       </c>
+      <c r="S8">
+        <v>-186</v>
+      </c>
+      <c r="T8">
+        <v>281</v>
+      </c>
+      <c r="U8">
+        <v>-158</v>
+      </c>
+      <c r="V8">
+        <v>248</v>
+      </c>
+      <c r="W8">
+        <v>-64</v>
+      </c>
       <c r="X8">
-        <v>-186</v>
+        <v>242</v>
       </c>
       <c r="Y8">
-        <v>281</v>
+        <v>-214</v>
       </c>
       <c r="Z8">
-        <v>-158</v>
-      </c>
-      <c r="AA8">
-        <v>248</v>
-      </c>
-      <c r="AB8">
-        <v>-64</v>
-      </c>
-      <c r="AC8">
-        <v>242</v>
-      </c>
-      <c r="AD8">
-        <v>-214</v>
-      </c>
-      <c r="AE8">
         <v>-100</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1536,44 +1605,44 @@
       <c r="Q9">
         <v>0</v>
       </c>
+      <c r="S9">
+        <v>154</v>
+      </c>
+      <c r="T9">
+        <v>-53</v>
+      </c>
+      <c r="U9">
+        <v>58</v>
+      </c>
+      <c r="V9">
+        <v>-2</v>
+      </c>
+      <c r="W9">
+        <v>-50</v>
+      </c>
       <c r="X9">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="Y9">
-        <v>-53</v>
+        <v>-124</v>
       </c>
       <c r="Z9">
-        <v>58</v>
-      </c>
-      <c r="AA9">
-        <v>-2</v>
-      </c>
-      <c r="AB9">
-        <v>-50</v>
-      </c>
-      <c r="AC9">
-        <v>146</v>
-      </c>
-      <c r="AD9">
-        <v>-124</v>
-      </c>
-      <c r="AE9">
         <v>362</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="X11" s="2" t="s">
-        <v>1</v>
-      </c>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1622,106 +1691,106 @@
       <c r="Q12">
         <v>0</v>
       </c>
+      <c r="S12">
+        <v>256</v>
+      </c>
+      <c r="T12">
+        <v>-64</v>
+      </c>
+      <c r="U12">
+        <v>98</v>
+      </c>
+      <c r="V12">
+        <v>-106</v>
+      </c>
+      <c r="W12">
+        <v>122</v>
+      </c>
       <c r="X12">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="Y12">
+        <v>-117</v>
+      </c>
+      <c r="Z12">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="S13">
         <v>-64</v>
       </c>
-      <c r="Z12">
-        <v>98</v>
-      </c>
-      <c r="AA12">
-        <v>-106</v>
-      </c>
-      <c r="AB12">
-        <v>122</v>
-      </c>
-      <c r="AC12">
-        <v>24</v>
-      </c>
-      <c r="AD12">
-        <v>-117</v>
-      </c>
-      <c r="AE12">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
+      <c r="T13">
+        <v>-66</v>
+      </c>
+      <c r="U13">
+        <v>54</v>
+      </c>
+      <c r="V13">
+        <v>-60</v>
+      </c>
+      <c r="W13">
+        <v>-62</v>
       </c>
       <c r="X13">
-        <v>-64</v>
+        <v>26</v>
       </c>
       <c r="Y13">
-        <v>-66</v>
+        <v>36</v>
       </c>
       <c r="Z13">
-        <v>54</v>
-      </c>
-      <c r="AA13">
-        <v>-60</v>
-      </c>
-      <c r="AB13">
-        <v>-62</v>
-      </c>
-      <c r="AC13">
-        <v>26</v>
-      </c>
-      <c r="AD13">
-        <v>36</v>
-      </c>
-      <c r="AE13">
         <v>-126</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1770,414 +1839,414 @@
       <c r="Q14">
         <v>0</v>
       </c>
+      <c r="S14">
+        <v>92</v>
+      </c>
+      <c r="T14">
+        <v>-36</v>
+      </c>
+      <c r="U14">
+        <v>62</v>
+      </c>
+      <c r="V14">
+        <v>-38</v>
+      </c>
+      <c r="W14">
+        <v>-108</v>
+      </c>
       <c r="X14">
-        <v>92</v>
+        <v>-102</v>
       </c>
       <c r="Y14">
-        <v>-36</v>
+        <v>-26</v>
       </c>
       <c r="Z14">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>-1</v>
+      </c>
+      <c r="N15">
+        <v>-1</v>
+      </c>
+      <c r="O15">
+        <v>-1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>-74</v>
+      </c>
+      <c r="T15">
+        <v>-86</v>
+      </c>
+      <c r="U15">
+        <v>68</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>30</v>
+      </c>
+      <c r="Y15">
+        <v>-118</v>
+      </c>
+      <c r="Z15">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>-1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>82</v>
+      </c>
+      <c r="T16">
+        <v>-84</v>
+      </c>
+      <c r="U16">
+        <v>32</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>-44</v>
+      </c>
+      <c r="Y16">
+        <v>-70</v>
+      </c>
+      <c r="Z16">
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>30</v>
+      </c>
+      <c r="T17">
+        <v>-30</v>
+      </c>
+      <c r="U17">
+        <v>-68</v>
+      </c>
+      <c r="V17">
+        <v>34</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>-34</v>
+      </c>
+      <c r="Y17">
         <v>62</v>
       </c>
-      <c r="AA14">
-        <v>-38</v>
-      </c>
-      <c r="AB14">
-        <v>-108</v>
-      </c>
-      <c r="AC14">
-        <v>-102</v>
-      </c>
-      <c r="AD14">
+      <c r="Z17">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>-72</v>
+      </c>
+      <c r="T18">
+        <v>-54</v>
+      </c>
+      <c r="U18">
+        <v>44</v>
+      </c>
+      <c r="V18">
+        <v>-58</v>
+      </c>
+      <c r="W18">
+        <v>-46</v>
+      </c>
+      <c r="X18">
+        <v>58</v>
+      </c>
+      <c r="Y18">
+        <v>-176</v>
+      </c>
+      <c r="Z18">
+        <v>-166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>397</v>
+      </c>
+      <c r="T19">
+        <v>-82</v>
+      </c>
+      <c r="U19">
         <v>-26</v>
       </c>
-      <c r="AE14">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>0</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>-1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>-1</v>
-      </c>
-      <c r="N15">
-        <v>-1</v>
-      </c>
-      <c r="O15">
-        <v>-1</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>-74</v>
-      </c>
-      <c r="Y15">
-        <v>-86</v>
-      </c>
-      <c r="Z15">
-        <v>68</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>30</v>
-      </c>
-      <c r="AD15">
-        <v>-118</v>
-      </c>
-      <c r="AE15">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>0</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>-1</v>
-      </c>
-      <c r="D16">
-        <v>-1</v>
-      </c>
-      <c r="E16">
-        <v>-1</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>-1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>82</v>
-      </c>
-      <c r="Y16">
-        <v>-84</v>
-      </c>
-      <c r="Z16">
-        <v>32</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>-44</v>
-      </c>
-      <c r="AD16">
-        <v>-70</v>
-      </c>
-      <c r="AE16">
-        <v>-46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>0</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>30</v>
-      </c>
-      <c r="Y17">
-        <v>-30</v>
-      </c>
-      <c r="Z17">
-        <v>-68</v>
-      </c>
-      <c r="AA17">
-        <v>34</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>-34</v>
-      </c>
-      <c r="AD17">
-        <v>62</v>
-      </c>
-      <c r="AE17">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>0</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>-72</v>
-      </c>
-      <c r="Y18">
-        <v>-54</v>
-      </c>
-      <c r="Z18">
-        <v>44</v>
-      </c>
-      <c r="AA18">
-        <v>-58</v>
-      </c>
-      <c r="AB18">
-        <v>-46</v>
-      </c>
-      <c r="AC18">
-        <v>58</v>
-      </c>
-      <c r="AD18">
-        <v>-176</v>
-      </c>
-      <c r="AE18">
-        <v>-166</v>
-      </c>
-    </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
+      <c r="V19">
+        <v>102</v>
+      </c>
+      <c r="W19">
+        <v>-80</v>
       </c>
       <c r="X19">
-        <v>397</v>
+        <v>148</v>
       </c>
       <c r="Y19">
-        <v>-82</v>
+        <v>-135</v>
       </c>
       <c r="Z19">
-        <v>-26</v>
-      </c>
-      <c r="AA19">
-        <v>102</v>
-      </c>
-      <c r="AB19">
-        <v>-80</v>
-      </c>
-      <c r="AC19">
-        <v>148</v>
-      </c>
-      <c r="AD19">
-        <v>-135</v>
-      </c>
-      <c r="AE19">
         <v>463</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="X21" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="S21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
-      <c r="AE21" s="2"/>
-    </row>
-    <row r="22" spans="1:40" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2226,32 +2295,32 @@
       <c r="Q22">
         <v>0</v>
       </c>
+      <c r="S22">
+        <v>556</v>
+      </c>
+      <c r="T22">
+        <v>-107</v>
+      </c>
+      <c r="U22">
+        <v>79</v>
+      </c>
+      <c r="V22">
+        <v>37</v>
+      </c>
+      <c r="W22">
+        <v>103</v>
+      </c>
       <c r="X22">
-        <v>556</v>
+        <v>43</v>
       </c>
       <c r="Y22">
-        <v>-107</v>
+        <v>59</v>
       </c>
       <c r="Z22">
-        <v>79</v>
-      </c>
-      <c r="AA22">
-        <v>37</v>
-      </c>
-      <c r="AB22">
-        <v>103</v>
-      </c>
-      <c r="AC22">
-        <v>43</v>
-      </c>
-      <c r="AD22">
-        <v>59</v>
-      </c>
-      <c r="AE22">
         <v>323</v>
       </c>
     </row>
-    <row r="23" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2300,32 +2369,32 @@
       <c r="Q23">
         <v>0</v>
       </c>
+      <c r="S23">
+        <v>-111</v>
+      </c>
+      <c r="T23">
+        <v>-227</v>
+      </c>
+      <c r="U23">
+        <v>155</v>
+      </c>
+      <c r="V23">
+        <v>77</v>
+      </c>
+      <c r="W23">
+        <v>-29</v>
+      </c>
       <c r="X23">
-        <v>-111</v>
+        <v>29</v>
       </c>
       <c r="Y23">
-        <v>-227</v>
+        <v>-201</v>
       </c>
       <c r="Z23">
-        <v>155</v>
-      </c>
-      <c r="AA23">
-        <v>77</v>
-      </c>
-      <c r="AB23">
-        <v>-29</v>
-      </c>
-      <c r="AC23">
-        <v>29</v>
-      </c>
-      <c r="AD23">
-        <v>-201</v>
-      </c>
-      <c r="AE23">
         <v>-31</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2374,422 +2443,424 @@
       <c r="Q24">
         <v>0</v>
       </c>
+      <c r="S24">
+        <v>125</v>
+      </c>
+      <c r="T24">
+        <v>-73</v>
+      </c>
+      <c r="U24">
+        <v>13</v>
+      </c>
+      <c r="V24">
+        <v>-42</v>
+      </c>
+      <c r="W24">
+        <v>-223</v>
+      </c>
       <c r="X24">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="Y24">
-        <v>-73</v>
+        <v>-215</v>
       </c>
       <c r="Z24">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>-1</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>-1</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>27</v>
+      </c>
+      <c r="T25">
+        <v>-129</v>
+      </c>
+      <c r="U25">
+        <v>-33</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>-199</v>
+      </c>
+      <c r="Y25">
         <v>13</v>
       </c>
-      <c r="AA24">
-        <v>-42</v>
-      </c>
-      <c r="AB24">
-        <v>-223</v>
-      </c>
-      <c r="AC24">
-        <v>17</v>
-      </c>
-      <c r="AD24">
-        <v>-215</v>
-      </c>
-      <c r="AE24">
+      <c r="Z25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>-1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>-1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>-1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>49</v>
+      </c>
+      <c r="T26">
+        <v>23</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>101</v>
+      </c>
+      <c r="Y26">
+        <v>-85</v>
+      </c>
+      <c r="Z26">
+        <v>-191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>99</v>
+      </c>
+      <c r="T27">
+        <v>-99</v>
+      </c>
+      <c r="U27">
+        <v>-9</v>
+      </c>
+      <c r="V27">
+        <v>-44</v>
+      </c>
+      <c r="W27">
+        <v>-95</v>
+      </c>
+      <c r="X27">
+        <v>19</v>
+      </c>
+      <c r="Y27">
+        <v>-67</v>
+      </c>
+      <c r="Z27">
+        <v>69</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AI27" s="1"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>-26</v>
+      </c>
+      <c r="T28">
+        <v>-214</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>-43</v>
+      </c>
+      <c r="W28">
+        <v>51</v>
+      </c>
+      <c r="X28">
+        <v>-13</v>
+      </c>
+      <c r="Y28">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>0</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>-1</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>-1</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>-1</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>27</v>
-      </c>
-      <c r="Y25">
-        <v>-129</v>
-      </c>
-      <c r="Z25">
-        <v>-33</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>-199</v>
-      </c>
-      <c r="AD25">
-        <v>13</v>
-      </c>
-      <c r="AE25">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>-1</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>-1</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <v>-1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="Z28">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>506</v>
+      </c>
+      <c r="T29">
+        <v>33</v>
+      </c>
+      <c r="U29">
+        <v>25</v>
+      </c>
+      <c r="V29">
+        <v>67</v>
+      </c>
+      <c r="W29">
+        <v>-121</v>
+      </c>
+      <c r="X29">
         <v>49</v>
       </c>
-      <c r="Y26">
-        <v>23</v>
-      </c>
-      <c r="Z26">
-        <v>3</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>101</v>
-      </c>
-      <c r="AD26">
-        <v>-85</v>
-      </c>
-      <c r="AE26">
-        <v>-191</v>
-      </c>
-    </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>0</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>99</v>
-      </c>
-      <c r="Y27">
-        <v>-99</v>
-      </c>
-      <c r="Z27">
-        <v>-9</v>
-      </c>
-      <c r="AA27">
-        <v>-44</v>
-      </c>
-      <c r="AB27">
-        <v>-95</v>
-      </c>
-      <c r="AC27">
-        <v>19</v>
-      </c>
-      <c r="AD27">
-        <v>-67</v>
-      </c>
-      <c r="AE27">
-        <v>69</v>
-      </c>
-      <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
-      <c r="AM27" s="1"/>
-      <c r="AN27" s="1"/>
-    </row>
-    <row r="28" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>0</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>-26</v>
-      </c>
-      <c r="Y28">
-        <v>-214</v>
-      </c>
-      <c r="Z28">
-        <v>1</v>
-      </c>
-      <c r="AA28">
-        <v>-43</v>
-      </c>
-      <c r="AB28">
-        <v>51</v>
-      </c>
-      <c r="AC28">
-        <v>-13</v>
-      </c>
-      <c r="AD28">
-        <v>33</v>
-      </c>
-      <c r="AE28">
-        <v>-139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>0</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>506</v>
-      </c>
       <c r="Y29">
-        <v>33</v>
+        <v>-74</v>
       </c>
       <c r="Z29">
-        <v>25</v>
-      </c>
-      <c r="AA29">
-        <v>67</v>
-      </c>
-      <c r="AB29">
-        <v>-121</v>
-      </c>
-      <c r="AC29">
-        <v>49</v>
-      </c>
-      <c r="AD29">
-        <v>-74</v>
-      </c>
-      <c r="AE29">
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:40" x14ac:dyDescent="0.3">
-      <c r="X31" s="2" t="s">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="S31" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-    </row>
-    <row r="32" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="AH31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2838,562 +2909,583 @@
       <c r="Q32">
         <v>0</v>
       </c>
+      <c r="S32">
+        <v>194</v>
+      </c>
+      <c r="T32">
+        <v>20</v>
+      </c>
+      <c r="U32">
+        <v>54</v>
+      </c>
+      <c r="V32">
+        <v>-38</v>
+      </c>
+      <c r="W32">
+        <v>70</v>
+      </c>
       <c r="X32">
-        <v>194</v>
+        <v>-32</v>
       </c>
       <c r="Y32">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Z32">
-        <v>54</v>
-      </c>
-      <c r="AA32">
+        <v>183</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>-1</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>11</v>
+      </c>
+      <c r="T33">
+        <v>-99</v>
+      </c>
+      <c r="U33">
+        <v>26</v>
+      </c>
+      <c r="V33">
+        <v>-62</v>
+      </c>
+      <c r="W33">
+        <v>18</v>
+      </c>
+      <c r="X33">
+        <v>-8</v>
+      </c>
+      <c r="Y33">
+        <v>-46</v>
+      </c>
+      <c r="Z33">
+        <v>13</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>-1</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>-13</v>
+      </c>
+      <c r="T34">
+        <v>65</v>
+      </c>
+      <c r="U34">
+        <v>26</v>
+      </c>
+      <c r="V34">
+        <v>-103</v>
+      </c>
+      <c r="W34">
+        <v>-82</v>
+      </c>
+      <c r="X34">
+        <v>28</v>
+      </c>
+      <c r="Y34">
         <v>-38</v>
       </c>
-      <c r="AB32">
-        <v>70</v>
-      </c>
-      <c r="AC32">
-        <v>-32</v>
-      </c>
-      <c r="AD32">
-        <v>35</v>
-      </c>
-      <c r="AE32">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>0</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>-1</v>
-      </c>
-      <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>11</v>
-      </c>
-      <c r="Y33">
-        <v>-99</v>
-      </c>
-      <c r="Z33">
+      <c r="Z34">
+        <v>-70</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>-1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>-1</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>-1</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>57</v>
+      </c>
+      <c r="T35">
+        <v>-67</v>
+      </c>
+      <c r="U35">
+        <v>-79</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>-6</v>
+      </c>
+      <c r="Y35">
+        <v>4</v>
+      </c>
+      <c r="Z35">
+        <v>66</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>-1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>-1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>-1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>-9</v>
+      </c>
+      <c r="T36">
+        <v>107</v>
+      </c>
+      <c r="U36">
+        <v>-81</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>14</v>
+      </c>
+      <c r="Y36">
+        <v>-63</v>
+      </c>
+      <c r="Z36">
+        <v>-52</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="S37">
+        <v>3</v>
+      </c>
+      <c r="T37">
+        <v>-12</v>
+      </c>
+      <c r="U37">
+        <v>12</v>
+      </c>
+      <c r="V37">
+        <v>-36</v>
+      </c>
+      <c r="W37">
+        <v>24</v>
+      </c>
+      <c r="X37">
+        <v>-4</v>
+      </c>
+      <c r="Y37">
+        <v>-82</v>
+      </c>
+      <c r="Z37">
+        <v>74</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <v>-43</v>
+      </c>
+      <c r="T38">
+        <v>-27</v>
+      </c>
+      <c r="U38">
+        <v>-15</v>
+      </c>
+      <c r="V38">
+        <v>-80</v>
+      </c>
+      <c r="W38">
+        <v>10</v>
+      </c>
+      <c r="X38">
+        <v>2</v>
+      </c>
+      <c r="Y38">
+        <v>-78</v>
+      </c>
+      <c r="Z38">
+        <v>-34</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="S39">
+        <v>173</v>
+      </c>
+      <c r="T39">
+        <v>-13</v>
+      </c>
+      <c r="U39">
+        <v>10</v>
+      </c>
+      <c r="V39">
         <v>26</v>
       </c>
-      <c r="AA33">
-        <v>-62</v>
-      </c>
-      <c r="AB33">
-        <v>18</v>
-      </c>
-      <c r="AC33">
-        <v>-8</v>
-      </c>
-      <c r="AD33">
-        <v>-46</v>
-      </c>
-      <c r="AE33">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>-1</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>-13</v>
-      </c>
-      <c r="Y34">
-        <v>65</v>
-      </c>
-      <c r="Z34">
-        <v>26</v>
-      </c>
-      <c r="AA34">
-        <v>-103</v>
-      </c>
-      <c r="AB34">
-        <v>-82</v>
-      </c>
-      <c r="AC34">
-        <v>28</v>
-      </c>
-      <c r="AD34">
+      <c r="W39">
+        <v>-2</v>
+      </c>
+      <c r="X39">
+        <v>40</v>
+      </c>
+      <c r="Y39">
         <v>-38</v>
       </c>
-      <c r="AE34">
-        <v>-70</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>0</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>-1</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>-1</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>-1</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>57</v>
-      </c>
-      <c r="Y35">
-        <v>-67</v>
-      </c>
-      <c r="Z35">
-        <v>-79</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>-6</v>
-      </c>
-      <c r="AD35">
-        <v>4</v>
-      </c>
-      <c r="AE35">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0</v>
-      </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>-1</v>
-      </c>
-      <c r="D36">
-        <v>1</v>
-      </c>
-      <c r="E36">
-        <v>-1</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>-1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>-9</v>
-      </c>
-      <c r="Y36">
-        <v>107</v>
-      </c>
-      <c r="Z36">
-        <v>-81</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-      <c r="AB36">
-        <v>0</v>
-      </c>
-      <c r="AC36">
-        <v>14</v>
-      </c>
-      <c r="AD36">
-        <v>-63</v>
-      </c>
-      <c r="AE36">
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>0</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>-1</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="N37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="X37">
+      <c r="Z39">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="S41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Y37">
-        <v>-12</v>
-      </c>
-      <c r="Z37">
-        <v>12</v>
-      </c>
-      <c r="AA37">
-        <v>-36</v>
-      </c>
-      <c r="AB37">
-        <v>24</v>
-      </c>
-      <c r="AC37">
-        <v>-4</v>
-      </c>
-      <c r="AD37">
-        <v>-82</v>
-      </c>
-      <c r="AE37">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>0</v>
-      </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
-        <v>-1</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
-      <c r="N38">
-        <v>0</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>0</v>
-      </c>
-      <c r="X38">
-        <v>-43</v>
-      </c>
-      <c r="Y38">
-        <v>-27</v>
-      </c>
-      <c r="Z38">
-        <v>-15</v>
-      </c>
-      <c r="AA38">
-        <v>-80</v>
-      </c>
-      <c r="AB38">
-        <v>10</v>
-      </c>
-      <c r="AC38">
-        <v>2</v>
-      </c>
-      <c r="AD38">
-        <v>-78</v>
-      </c>
-      <c r="AE38">
-        <v>-34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>0</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>173</v>
-      </c>
-      <c r="Y39">
-        <v>-13</v>
-      </c>
-      <c r="Z39">
-        <v>10</v>
-      </c>
-      <c r="AA39">
-        <v>26</v>
-      </c>
-      <c r="AB39">
-        <v>-2</v>
-      </c>
-      <c r="AC39">
-        <v>40</v>
-      </c>
-      <c r="AD39">
-        <v>-38</v>
-      </c>
-      <c r="AE39">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="X41" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
-      <c r="AA41" s="2"/>
-      <c r="AB41" s="2"/>
-      <c r="AC41" s="2"/>
-      <c r="AD41" s="2"/>
-      <c r="AE41" s="2"/>
-    </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3442,32 +3534,32 @@
       <c r="Q42">
         <v>0</v>
       </c>
+      <c r="S42">
+        <v>875</v>
+      </c>
+      <c r="T42">
+        <v>-221</v>
+      </c>
+      <c r="U42">
+        <v>119</v>
+      </c>
+      <c r="V42">
+        <v>109</v>
+      </c>
+      <c r="W42">
+        <v>-189</v>
+      </c>
       <c r="X42">
-        <v>875</v>
+        <v>257</v>
       </c>
       <c r="Y42">
-        <v>-221</v>
+        <v>-248</v>
       </c>
       <c r="Z42">
-        <v>119</v>
-      </c>
-      <c r="AA42">
-        <v>109</v>
-      </c>
-      <c r="AB42">
-        <v>-189</v>
-      </c>
-      <c r="AC42">
-        <v>257</v>
-      </c>
-      <c r="AD42">
-        <v>-248</v>
-      </c>
-      <c r="AE42">
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3516,32 +3608,32 @@
       <c r="Q43">
         <v>0</v>
       </c>
+      <c r="S43">
+        <v>-292</v>
+      </c>
+      <c r="T43">
+        <v>-322</v>
+      </c>
+      <c r="U43">
+        <v>21</v>
+      </c>
+      <c r="V43">
+        <v>-79</v>
+      </c>
+      <c r="W43">
+        <v>25</v>
+      </c>
       <c r="X43">
-        <v>-292</v>
+        <v>-37</v>
       </c>
       <c r="Y43">
-        <v>-322</v>
+        <v>-234</v>
       </c>
       <c r="Z43">
-        <v>21</v>
-      </c>
-      <c r="AA43">
-        <v>-79</v>
-      </c>
-      <c r="AB43">
-        <v>25</v>
-      </c>
-      <c r="AC43">
-        <v>-37</v>
-      </c>
-      <c r="AD43">
-        <v>-234</v>
-      </c>
-      <c r="AE43">
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3590,180 +3682,180 @@
       <c r="Q44">
         <v>0</v>
       </c>
+      <c r="S44">
+        <v>265</v>
+      </c>
+      <c r="T44">
+        <v>-87</v>
+      </c>
+      <c r="U44">
+        <v>54</v>
+      </c>
+      <c r="V44">
+        <v>-305</v>
+      </c>
+      <c r="W44">
+        <v>-3</v>
+      </c>
       <c r="X44">
-        <v>265</v>
+        <v>53</v>
       </c>
       <c r="Y44">
-        <v>-87</v>
+        <v>-249</v>
       </c>
       <c r="Z44">
-        <v>54</v>
-      </c>
-      <c r="AA44">
-        <v>-305</v>
-      </c>
-      <c r="AB44">
-        <v>-3</v>
-      </c>
-      <c r="AC44">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>-1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>-1</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>-1</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>51</v>
+      </c>
+      <c r="T45">
+        <v>-329</v>
+      </c>
+      <c r="U45">
+        <v>7</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>11</v>
+      </c>
+      <c r="Y45">
+        <v>-215</v>
+      </c>
+      <c r="Z45">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>1</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>-39</v>
+      </c>
+      <c r="T46">
+        <v>39</v>
+      </c>
+      <c r="U46">
+        <v>13</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
         <v>53</v>
       </c>
-      <c r="AD44">
-        <v>-249</v>
-      </c>
-      <c r="AE44">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>0</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>-1</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>-1</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>-1</v>
-      </c>
-      <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>51</v>
-      </c>
-      <c r="Y45">
-        <v>-329</v>
-      </c>
-      <c r="Z45">
-        <v>7</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AB45">
-        <v>0</v>
-      </c>
-      <c r="AC45">
-        <v>11</v>
-      </c>
-      <c r="AD45">
-        <v>-215</v>
-      </c>
-      <c r="AE45">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>0</v>
-      </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>-1</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>1</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>1</v>
-      </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>-39</v>
-      </c>
       <c r="Y46">
-        <v>39</v>
+        <v>-231</v>
       </c>
       <c r="Z46">
-        <v>13</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AB46">
-        <v>0</v>
-      </c>
-      <c r="AC46">
-        <v>53</v>
-      </c>
-      <c r="AD46">
-        <v>-231</v>
-      </c>
-      <c r="AE46">
         <v>-175</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3812,32 +3904,32 @@
       <c r="Q47">
         <v>0</v>
       </c>
+      <c r="S47">
+        <v>181</v>
+      </c>
+      <c r="T47">
+        <v>75</v>
+      </c>
+      <c r="U47">
+        <v>77</v>
+      </c>
+      <c r="V47">
+        <v>-261</v>
+      </c>
+      <c r="W47">
+        <v>45</v>
+      </c>
       <c r="X47">
-        <v>181</v>
+        <v>3</v>
       </c>
       <c r="Y47">
-        <v>75</v>
+        <v>-62</v>
       </c>
       <c r="Z47">
-        <v>77</v>
-      </c>
-      <c r="AA47">
-        <v>-261</v>
-      </c>
-      <c r="AB47">
-        <v>45</v>
-      </c>
-      <c r="AC47">
-        <v>3</v>
-      </c>
-      <c r="AD47">
-        <v>-62</v>
-      </c>
-      <c r="AE47">
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3886,32 +3978,32 @@
       <c r="Q48">
         <v>0</v>
       </c>
+      <c r="S48">
+        <v>-227</v>
+      </c>
+      <c r="T48">
+        <v>-225</v>
+      </c>
+      <c r="U48">
+        <v>-227</v>
+      </c>
+      <c r="V48">
+        <v>-201</v>
+      </c>
+      <c r="W48">
+        <v>-31</v>
+      </c>
       <c r="X48">
-        <v>-227</v>
+        <v>167</v>
       </c>
       <c r="Y48">
-        <v>-225</v>
+        <v>-174</v>
       </c>
       <c r="Z48">
-        <v>-227</v>
-      </c>
-      <c r="AA48">
-        <v>-201</v>
-      </c>
-      <c r="AB48">
-        <v>-31</v>
-      </c>
-      <c r="AC48">
-        <v>167</v>
-      </c>
-      <c r="AD48">
-        <v>-174</v>
-      </c>
-      <c r="AE48">
         <v>-191</v>
       </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3960,44 +4052,44 @@
       <c r="Q49">
         <v>0</v>
       </c>
+      <c r="S49">
+        <v>668</v>
+      </c>
+      <c r="T49">
+        <v>137</v>
+      </c>
+      <c r="U49">
+        <v>19</v>
+      </c>
+      <c r="V49">
+        <v>195</v>
+      </c>
+      <c r="W49">
+        <v>31</v>
+      </c>
       <c r="X49">
-        <v>668</v>
+        <v>131</v>
       </c>
       <c r="Y49">
-        <v>137</v>
+        <v>-209</v>
       </c>
       <c r="Z49">
-        <v>19</v>
-      </c>
-      <c r="AA49">
-        <v>195</v>
-      </c>
-      <c r="AB49">
-        <v>31</v>
-      </c>
-      <c r="AC49">
-        <v>131</v>
-      </c>
-      <c r="AD49">
-        <v>-209</v>
-      </c>
-      <c r="AE49">
         <v>558</v>
       </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="X51" s="2" t="s">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S51" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
-      <c r="AA51" s="2"/>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2"/>
-      <c r="AE51" s="2"/>
-    </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -4046,562 +4138,562 @@
       <c r="Q52">
         <v>0</v>
       </c>
+      <c r="S52">
+        <v>175</v>
+      </c>
+      <c r="T52">
+        <v>-9</v>
+      </c>
+      <c r="U52">
+        <v>13</v>
+      </c>
+      <c r="V52">
+        <v>-9</v>
+      </c>
+      <c r="W52">
+        <v>-11</v>
+      </c>
       <c r="X52">
-        <v>175</v>
+        <v>15</v>
       </c>
       <c r="Y52">
+        <v>-83</v>
+      </c>
+      <c r="Z52">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <v>-1</v>
+      </c>
+      <c r="P53">
+        <v>0</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>-52</v>
+      </c>
+      <c r="T53">
+        <v>-89</v>
+      </c>
+      <c r="U53">
+        <v>-83</v>
+      </c>
+      <c r="V53">
+        <v>39</v>
+      </c>
+      <c r="W53">
+        <v>-81</v>
+      </c>
+      <c r="X53">
+        <v>41</v>
+      </c>
+      <c r="Y53">
+        <v>-73</v>
+      </c>
+      <c r="Z53">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>0</v>
+      </c>
+      <c r="O54">
+        <v>-1</v>
+      </c>
+      <c r="P54">
+        <v>0</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>61</v>
+      </c>
+      <c r="T54">
+        <v>-5</v>
+      </c>
+      <c r="U54">
+        <v>15</v>
+      </c>
+      <c r="V54">
+        <v>19</v>
+      </c>
+      <c r="W54">
+        <v>-25</v>
+      </c>
+      <c r="X54">
+        <v>-25</v>
+      </c>
+      <c r="Y54">
+        <v>1</v>
+      </c>
+      <c r="Z54">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-1</v>
+      </c>
+      <c r="N55">
+        <v>-1</v>
+      </c>
+      <c r="O55">
+        <v>-1</v>
+      </c>
+      <c r="P55">
+        <v>0</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>41</v>
+      </c>
+      <c r="T55">
+        <v>-13</v>
+      </c>
+      <c r="U55">
+        <v>17</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>-85</v>
+      </c>
+      <c r="Y55">
+        <v>49</v>
+      </c>
+      <c r="Z55">
+        <v>-37</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <v>-1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>-1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>-1</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>-7</v>
+      </c>
+      <c r="T56">
+        <v>11</v>
+      </c>
+      <c r="U56">
+        <v>-89</v>
+      </c>
+      <c r="V56">
+        <v>0</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>31</v>
+      </c>
+      <c r="Y56">
+        <v>-7</v>
+      </c>
+      <c r="Z56">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <v>-1</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>-1</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>-1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>-5</v>
+      </c>
+      <c r="T57">
+        <v>-49</v>
+      </c>
+      <c r="U57">
+        <v>27</v>
+      </c>
+      <c r="V57">
+        <v>-95</v>
+      </c>
+      <c r="W57">
+        <v>-83</v>
+      </c>
+      <c r="X57">
+        <v>-75</v>
+      </c>
+      <c r="Y57">
+        <v>-11</v>
+      </c>
+      <c r="Z57">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <v>-1</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>26</v>
+      </c>
+      <c r="T58">
+        <v>-59</v>
+      </c>
+      <c r="U58">
         <v>-9</v>
       </c>
-      <c r="Z52">
-        <v>13</v>
-      </c>
-      <c r="AA52">
-        <v>-9</v>
-      </c>
-      <c r="AB52">
-        <v>-11</v>
-      </c>
-      <c r="AC52">
-        <v>15</v>
-      </c>
-      <c r="AD52">
-        <v>-83</v>
-      </c>
-      <c r="AE52">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>0</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
-      </c>
-      <c r="O53">
-        <v>-1</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
-      </c>
-      <c r="Q53">
-        <v>0</v>
-      </c>
-      <c r="X53">
-        <v>-52</v>
-      </c>
-      <c r="Y53">
-        <v>-89</v>
-      </c>
-      <c r="Z53">
-        <v>-83</v>
-      </c>
-      <c r="AA53">
+      <c r="V58">
+        <v>49</v>
+      </c>
+      <c r="W58">
         <v>39</v>
       </c>
-      <c r="AB53">
-        <v>-81</v>
-      </c>
-      <c r="AC53">
-        <v>41</v>
-      </c>
-      <c r="AD53">
-        <v>-73</v>
-      </c>
-      <c r="AE53">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>0</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54">
-        <v>0</v>
-      </c>
-      <c r="O54">
-        <v>-1</v>
-      </c>
-      <c r="P54">
-        <v>0</v>
-      </c>
-      <c r="Q54">
-        <v>0</v>
-      </c>
-      <c r="X54">
-        <v>61</v>
-      </c>
-      <c r="Y54">
-        <v>-5</v>
-      </c>
-      <c r="Z54">
-        <v>15</v>
-      </c>
-      <c r="AA54">
-        <v>19</v>
-      </c>
-      <c r="AB54">
-        <v>-25</v>
-      </c>
-      <c r="AC54">
-        <v>-25</v>
-      </c>
-      <c r="AD54">
-        <v>1</v>
-      </c>
-      <c r="AE54">
+      <c r="X58">
+        <v>73</v>
+      </c>
+      <c r="Y58">
+        <v>-87</v>
+      </c>
+      <c r="Z58">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>203</v>
+      </c>
+      <c r="T59">
+        <v>-49</v>
+      </c>
+      <c r="U59">
         <v>37</v>
       </c>
-    </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>0</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-      <c r="D55">
-        <v>-1</v>
-      </c>
-      <c r="E55">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>-1</v>
-      </c>
-      <c r="N55">
-        <v>-1</v>
-      </c>
-      <c r="O55">
-        <v>-1</v>
-      </c>
-      <c r="P55">
-        <v>0</v>
-      </c>
-      <c r="Q55">
-        <v>0</v>
-      </c>
-      <c r="X55">
-        <v>41</v>
-      </c>
-      <c r="Y55">
-        <v>-13</v>
-      </c>
-      <c r="Z55">
-        <v>17</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-      <c r="AB55">
-        <v>0</v>
-      </c>
-      <c r="AC55">
-        <v>-85</v>
-      </c>
-      <c r="AD55">
-        <v>49</v>
-      </c>
-      <c r="AE55">
-        <v>-37</v>
-      </c>
-    </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>0</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>-1</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>-1</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>-1</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>0</v>
-      </c>
-      <c r="X56">
+      <c r="V59">
+        <v>-41</v>
+      </c>
+      <c r="W59">
+        <v>1</v>
+      </c>
+      <c r="X59">
         <v>-7</v>
       </c>
-      <c r="Y56">
-        <v>11</v>
-      </c>
-      <c r="Z56">
-        <v>-89</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-      <c r="AB56">
-        <v>0</v>
-      </c>
-      <c r="AC56">
-        <v>31</v>
-      </c>
-      <c r="AD56">
-        <v>-7</v>
-      </c>
-      <c r="AE56">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>0</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-      <c r="C57">
-        <v>-1</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>-1</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>-1</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>0</v>
-      </c>
-      <c r="X57">
-        <v>-5</v>
-      </c>
-      <c r="Y57">
-        <v>-49</v>
-      </c>
-      <c r="Z57">
-        <v>27</v>
-      </c>
-      <c r="AA57">
-        <v>-95</v>
-      </c>
-      <c r="AB57">
-        <v>-83</v>
-      </c>
-      <c r="AC57">
-        <v>-75</v>
-      </c>
-      <c r="AD57">
-        <v>-11</v>
-      </c>
-      <c r="AE57">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>0</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
-      <c r="C58">
-        <v>-1</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>26</v>
-      </c>
-      <c r="Y58">
-        <v>-59</v>
-      </c>
-      <c r="Z58">
-        <v>-9</v>
-      </c>
-      <c r="AA58">
-        <v>49</v>
-      </c>
-      <c r="AB58">
-        <v>39</v>
-      </c>
-      <c r="AC58">
-        <v>73</v>
-      </c>
-      <c r="AD58">
-        <v>-87</v>
-      </c>
-      <c r="AE58">
-        <v>-32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>0</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="X59">
-        <v>203</v>
-      </c>
       <c r="Y59">
-        <v>-49</v>
+        <v>32</v>
       </c>
       <c r="Z59">
-        <v>37</v>
-      </c>
-      <c r="AA59">
-        <v>-41</v>
-      </c>
-      <c r="AB59">
-        <v>1</v>
-      </c>
-      <c r="AC59">
-        <v>-7</v>
-      </c>
-      <c r="AD59">
-        <v>32</v>
-      </c>
-      <c r="AE59">
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="X61" s="2" t="s">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S61" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-      <c r="AA61" s="2"/>
-      <c r="AB61" s="2"/>
-      <c r="AC61" s="2"/>
-      <c r="AD61" s="2"/>
-      <c r="AE61" s="2"/>
-    </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -4650,32 +4742,32 @@
       <c r="Q62">
         <v>0</v>
       </c>
+      <c r="S62">
+        <v>298</v>
+      </c>
+      <c r="T62">
+        <v>-33</v>
+      </c>
+      <c r="U62">
+        <v>97</v>
+      </c>
+      <c r="V62">
+        <v>-19</v>
+      </c>
+      <c r="W62">
+        <v>11</v>
+      </c>
       <c r="X62">
-        <v>298</v>
+        <v>41</v>
       </c>
       <c r="Y62">
-        <v>-33</v>
+        <v>-93</v>
       </c>
       <c r="Z62">
-        <v>97</v>
-      </c>
-      <c r="AA62">
-        <v>-19</v>
-      </c>
-      <c r="AB62">
-        <v>11</v>
-      </c>
-      <c r="AC62">
-        <v>41</v>
-      </c>
-      <c r="AD62">
-        <v>-93</v>
-      </c>
-      <c r="AE62">
         <v>272</v>
       </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -4724,106 +4816,106 @@
       <c r="Q63">
         <v>0</v>
       </c>
+      <c r="S63">
+        <v>-108</v>
+      </c>
+      <c r="T63">
+        <v>-110</v>
+      </c>
+      <c r="U63">
+        <v>-109</v>
+      </c>
+      <c r="V63">
+        <v>-111</v>
+      </c>
+      <c r="W63">
+        <v>99</v>
+      </c>
       <c r="X63">
-        <v>-108</v>
+        <v>-25</v>
       </c>
       <c r="Y63">
-        <v>-110</v>
+        <v>-83</v>
       </c>
       <c r="Z63">
-        <v>-109</v>
-      </c>
-      <c r="AA63">
-        <v>-111</v>
-      </c>
-      <c r="AB63">
-        <v>99</v>
-      </c>
-      <c r="AC63">
-        <v>-25</v>
-      </c>
-      <c r="AD63">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>-1</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>157</v>
+      </c>
+      <c r="T64">
         <v>-83</v>
       </c>
-      <c r="AE63">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>0</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>0</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64">
-        <v>0</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>1</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>0</v>
-      </c>
-      <c r="O64">
-        <v>-1</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
+      <c r="U64">
+        <v>101</v>
+      </c>
+      <c r="V64">
+        <v>-131</v>
+      </c>
+      <c r="W64">
+        <v>-99</v>
       </c>
       <c r="X64">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="Y64">
-        <v>-83</v>
+        <v>-49</v>
       </c>
       <c r="Z64">
-        <v>101</v>
-      </c>
-      <c r="AA64">
-        <v>-131</v>
-      </c>
-      <c r="AB64">
-        <v>-99</v>
-      </c>
-      <c r="AC64">
-        <v>113</v>
-      </c>
-      <c r="AD64">
-        <v>-49</v>
-      </c>
-      <c r="AE64">
         <v>-69</v>
       </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -4872,340 +4964,340 @@
       <c r="Q65">
         <v>0</v>
       </c>
+      <c r="S65">
+        <v>-23</v>
+      </c>
+      <c r="T65">
+        <v>-85</v>
+      </c>
+      <c r="U65">
+        <v>-21</v>
+      </c>
+      <c r="V65">
+        <v>0</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
       <c r="X65">
-        <v>-23</v>
+        <v>-133</v>
       </c>
       <c r="Y65">
+        <v>53</v>
+      </c>
+      <c r="Z65">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>-1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>-1</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>8</v>
+      </c>
+      <c r="T66">
+        <v>-139</v>
+      </c>
+      <c r="U66">
+        <v>-35</v>
+      </c>
+      <c r="V66">
+        <v>0</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>65</v>
+      </c>
+      <c r="Y66">
+        <v>-35</v>
+      </c>
+      <c r="Z66">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <v>-1</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>-1</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>-1</v>
+      </c>
+      <c r="M67">
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>87</v>
+      </c>
+      <c r="T67">
+        <v>-15</v>
+      </c>
+      <c r="U67">
+        <v>67</v>
+      </c>
+      <c r="V67">
+        <v>-37</v>
+      </c>
+      <c r="W67">
+        <v>-128</v>
+      </c>
+      <c r="X67">
+        <v>-32</v>
+      </c>
+      <c r="Y67">
+        <v>-31</v>
+      </c>
+      <c r="Z67">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <v>-1</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>0</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>-73</v>
+      </c>
+      <c r="T68">
+        <v>-107</v>
+      </c>
+      <c r="U68">
+        <v>-129</v>
+      </c>
+      <c r="V68">
+        <v>31</v>
+      </c>
+      <c r="W68">
+        <v>-5</v>
+      </c>
+      <c r="X68">
+        <v>51</v>
+      </c>
+      <c r="Y68">
+        <v>-115</v>
+      </c>
+      <c r="Z68">
         <v>-85</v>
       </c>
-      <c r="Z65">
-        <v>-21</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-      <c r="AB65">
-        <v>0</v>
-      </c>
-      <c r="AC65">
-        <v>-133</v>
-      </c>
-      <c r="AD65">
-        <v>53</v>
-      </c>
-      <c r="AE65">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>0</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66">
-        <v>-1</v>
-      </c>
-      <c r="F66">
-        <v>1</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>-1</v>
-      </c>
-      <c r="N66">
-        <v>1</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="X66">
-        <v>8</v>
-      </c>
-      <c r="Y66">
-        <v>-139</v>
-      </c>
-      <c r="Z66">
-        <v>-35</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-      <c r="AB66">
-        <v>0</v>
-      </c>
-      <c r="AC66">
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>0</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>234</v>
+      </c>
+      <c r="T69">
         <v>65</v>
       </c>
-      <c r="AD66">
-        <v>-35</v>
-      </c>
-      <c r="AE66">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>0</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>-1</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67">
-        <v>0</v>
-      </c>
-      <c r="F67">
-        <v>-1</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>-1</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
-      </c>
-      <c r="X67">
-        <v>87</v>
-      </c>
-      <c r="Y67">
-        <v>-15</v>
-      </c>
-      <c r="Z67">
-        <v>67</v>
-      </c>
-      <c r="AA67">
-        <v>-37</v>
-      </c>
-      <c r="AB67">
-        <v>-128</v>
-      </c>
-      <c r="AC67">
-        <v>-32</v>
-      </c>
-      <c r="AD67">
-        <v>-31</v>
-      </c>
-      <c r="AE67">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>0</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-      <c r="C68">
-        <v>-1</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68">
-        <v>0</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
-      <c r="N68">
-        <v>0</v>
-      </c>
-      <c r="O68">
-        <v>0</v>
-      </c>
-      <c r="P68">
-        <v>0</v>
-      </c>
-      <c r="Q68">
-        <v>0</v>
-      </c>
-      <c r="X68">
-        <v>-73</v>
-      </c>
-      <c r="Y68">
-        <v>-107</v>
-      </c>
-      <c r="Z68">
-        <v>-129</v>
-      </c>
-      <c r="AA68">
+      <c r="U69">
+        <v>45</v>
+      </c>
+      <c r="V69">
+        <v>43</v>
+      </c>
+      <c r="W69">
+        <v>-17</v>
+      </c>
+      <c r="X69">
         <v>31</v>
       </c>
-      <c r="AB68">
-        <v>-5</v>
-      </c>
-      <c r="AC68">
-        <v>51</v>
-      </c>
-      <c r="AD68">
-        <v>-115</v>
-      </c>
-      <c r="AE68">
-        <v>-85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>0</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
-      </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
-      </c>
-      <c r="X69">
-        <v>234</v>
-      </c>
       <c r="Y69">
-        <v>65</v>
+        <v>-51</v>
       </c>
       <c r="Z69">
-        <v>45</v>
-      </c>
-      <c r="AA69">
-        <v>43</v>
-      </c>
-      <c r="AB69">
-        <v>-17</v>
-      </c>
-      <c r="AC69">
-        <v>31</v>
-      </c>
-      <c r="AD69">
-        <v>-51</v>
-      </c>
-      <c r="AE69">
         <v>291</v>
       </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="X71" s="2" t="s">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S71" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
-      <c r="AA71" s="2"/>
-      <c r="AB71" s="2"/>
-      <c r="AC71" s="2"/>
-      <c r="AD71" s="2"/>
-      <c r="AE71" s="2"/>
-    </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -5254,562 +5346,562 @@
       <c r="Q72">
         <v>0</v>
       </c>
+      <c r="S72">
+        <v>119</v>
+      </c>
+      <c r="T72">
+        <v>-49</v>
+      </c>
+      <c r="U72">
+        <v>52</v>
+      </c>
+      <c r="V72">
+        <v>30</v>
+      </c>
+      <c r="W72">
+        <v>-60</v>
+      </c>
       <c r="X72">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="Y72">
-        <v>-49</v>
+        <v>8</v>
       </c>
       <c r="Z72">
-        <v>52</v>
-      </c>
-      <c r="AA72">
-        <v>30</v>
-      </c>
-      <c r="AB72">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73">
+        <v>-1</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+      <c r="Q73">
+        <v>0</v>
+      </c>
+      <c r="S73">
+        <v>6</v>
+      </c>
+      <c r="T73">
+        <v>-36</v>
+      </c>
+      <c r="U73">
+        <v>-64</v>
+      </c>
+      <c r="V73">
+        <v>-8</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-26</v>
+      </c>
+      <c r="Y73">
+        <v>-78</v>
+      </c>
+      <c r="Z73">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>-1</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74">
+        <v>0</v>
+      </c>
+      <c r="S74">
+        <v>28</v>
+      </c>
+      <c r="T74">
+        <v>-14</v>
+      </c>
+      <c r="U74">
+        <v>0</v>
+      </c>
+      <c r="V74">
+        <v>2</v>
+      </c>
+      <c r="W74">
+        <v>-74</v>
+      </c>
+      <c r="X74">
+        <v>82</v>
+      </c>
+      <c r="Y74">
+        <v>-34</v>
+      </c>
+      <c r="Z74">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>-1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>-1</v>
+      </c>
+      <c r="O75">
+        <v>-1</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <v>24</v>
+      </c>
+      <c r="T75">
+        <v>-23</v>
+      </c>
+      <c r="U75">
+        <v>-64</v>
+      </c>
+      <c r="V75">
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>-38</v>
+      </c>
+      <c r="Y75">
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>-1</v>
+      </c>
+      <c r="B76">
+        <v>-1</v>
+      </c>
+      <c r="C76">
+        <v>-1</v>
+      </c>
+      <c r="D76">
+        <v>-1</v>
+      </c>
+      <c r="E76">
+        <v>-1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>-1</v>
+      </c>
+      <c r="N76">
+        <v>-1</v>
+      </c>
+      <c r="O76">
+        <v>-1</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+      <c r="S76">
+        <v>14</v>
+      </c>
+      <c r="T76">
+        <v>-50</v>
+      </c>
+      <c r="U76">
+        <v>80</v>
+      </c>
+      <c r="V76">
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-12</v>
+      </c>
+      <c r="Y76">
+        <v>50</v>
+      </c>
+      <c r="Z76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <v>-1</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>-1</v>
+      </c>
+      <c r="G77">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>-1</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <v>6</v>
+      </c>
+      <c r="T77">
+        <v>-58</v>
+      </c>
+      <c r="U77">
+        <v>-58</v>
+      </c>
+      <c r="V77">
+        <v>82</v>
+      </c>
+      <c r="W77">
+        <v>-62</v>
+      </c>
+      <c r="X77">
+        <v>-24</v>
+      </c>
+      <c r="Y77">
+        <v>-6</v>
+      </c>
+      <c r="Z77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <v>-1</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>16</v>
+      </c>
+      <c r="T78">
+        <v>-58</v>
+      </c>
+      <c r="U78">
+        <v>62</v>
+      </c>
+      <c r="V78">
         <v>-60</v>
       </c>
-      <c r="AC72">
-        <v>24</v>
-      </c>
-      <c r="AD72">
-        <v>8</v>
-      </c>
-      <c r="AE72">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>0</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
-      <c r="C73">
-        <v>0</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
-      </c>
-      <c r="E73">
-        <v>0</v>
-      </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>-1</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="X73">
+      <c r="W78">
+        <v>-48</v>
+      </c>
+      <c r="X78">
+        <v>32</v>
+      </c>
+      <c r="Y78">
+        <v>-48</v>
+      </c>
+      <c r="Z78">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <v>112</v>
+      </c>
+      <c r="T79">
+        <v>-14</v>
+      </c>
+      <c r="U79">
+        <v>10</v>
+      </c>
+      <c r="V79">
         <v>6</v>
       </c>
-      <c r="Y73">
-        <v>-36</v>
-      </c>
-      <c r="Z73">
-        <v>-64</v>
-      </c>
-      <c r="AA73">
+      <c r="W79">
+        <v>28</v>
+      </c>
+      <c r="X79">
         <v>-8</v>
       </c>
-      <c r="AB73">
-        <v>0</v>
-      </c>
-      <c r="AC73">
-        <v>-26</v>
-      </c>
-      <c r="AD73">
-        <v>-78</v>
-      </c>
-      <c r="AE73">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>0</v>
-      </c>
-      <c r="B74">
-        <v>0</v>
-      </c>
-      <c r="C74">
-        <v>0</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>1</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>-1</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>28</v>
-      </c>
-      <c r="Y74">
-        <v>-14</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
+      <c r="Y79">
         <v>2</v>
       </c>
-      <c r="AB74">
-        <v>-74</v>
-      </c>
-      <c r="AC74">
-        <v>82</v>
-      </c>
-      <c r="AD74">
-        <v>-34</v>
-      </c>
-      <c r="AE74">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>0</v>
-      </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
-      <c r="C75">
-        <v>0</v>
-      </c>
-      <c r="D75">
-        <v>-1</v>
-      </c>
-      <c r="E75">
-        <v>1</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>1</v>
-      </c>
-      <c r="N75">
-        <v>-1</v>
-      </c>
-      <c r="O75">
-        <v>-1</v>
-      </c>
-      <c r="P75">
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <v>24</v>
-      </c>
-      <c r="Y75">
-        <v>-23</v>
-      </c>
-      <c r="Z75">
-        <v>-64</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <v>-38</v>
-      </c>
-      <c r="AD75">
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <v>-14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>-1</v>
-      </c>
-      <c r="B76">
-        <v>-1</v>
-      </c>
-      <c r="C76">
-        <v>-1</v>
-      </c>
-      <c r="D76">
-        <v>-1</v>
-      </c>
-      <c r="E76">
-        <v>-1</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>-1</v>
-      </c>
-      <c r="N76">
-        <v>-1</v>
-      </c>
-      <c r="O76">
-        <v>-1</v>
-      </c>
-      <c r="P76">
-        <v>0</v>
-      </c>
-      <c r="Q76">
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <v>14</v>
-      </c>
-      <c r="Y76">
-        <v>-50</v>
-      </c>
-      <c r="Z76">
-        <v>80</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <v>-12</v>
-      </c>
-      <c r="AD76">
-        <v>50</v>
-      </c>
-      <c r="AE76">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>0</v>
-      </c>
-      <c r="B77">
-        <v>0</v>
-      </c>
-      <c r="C77">
-        <v>-1</v>
-      </c>
-      <c r="D77">
-        <v>0</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>-1</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>-1</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>1</v>
-      </c>
-      <c r="O77">
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <v>6</v>
-      </c>
-      <c r="Y77">
-        <v>-58</v>
-      </c>
-      <c r="Z77">
-        <v>-58</v>
-      </c>
-      <c r="AA77">
-        <v>82</v>
-      </c>
-      <c r="AB77">
-        <v>-62</v>
-      </c>
-      <c r="AC77">
-        <v>-24</v>
-      </c>
-      <c r="AD77">
-        <v>-6</v>
-      </c>
-      <c r="AE77">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>0</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
-      <c r="C78">
-        <v>-1</v>
-      </c>
-      <c r="D78">
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <v>16</v>
-      </c>
-      <c r="Y78">
-        <v>-58</v>
-      </c>
-      <c r="Z78">
-        <v>62</v>
-      </c>
-      <c r="AA78">
-        <v>-60</v>
-      </c>
-      <c r="AB78">
-        <v>-48</v>
-      </c>
-      <c r="AC78">
-        <v>32</v>
-      </c>
-      <c r="AD78">
-        <v>-48</v>
-      </c>
-      <c r="AE78">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>0</v>
-      </c>
-      <c r="B79">
-        <v>0</v>
-      </c>
-      <c r="C79">
-        <v>0</v>
-      </c>
-      <c r="D79">
-        <v>0</v>
-      </c>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="O79">
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <v>0</v>
-      </c>
-      <c r="X79">
+      <c r="Z79">
         <v>112</v>
       </c>
-      <c r="Y79">
-        <v>-14</v>
-      </c>
-      <c r="Z79">
-        <v>10</v>
-      </c>
-      <c r="AA79">
-        <v>6</v>
-      </c>
-      <c r="AB79">
-        <v>28</v>
-      </c>
-      <c r="AC79">
-        <v>-8</v>
-      </c>
-      <c r="AD79">
-        <v>2</v>
-      </c>
-      <c r="AE79">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="X81" s="2" t="s">
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S81" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
-      <c r="AA81" s="2"/>
-      <c r="AB81" s="2"/>
-      <c r="AC81" s="2"/>
-      <c r="AD81" s="2"/>
-      <c r="AE81" s="2"/>
-    </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>0</v>
       </c>
@@ -5858,562 +5950,562 @@
       <c r="Q82">
         <v>0</v>
       </c>
+      <c r="S82">
+        <v>303</v>
+      </c>
+      <c r="T82">
+        <v>-14</v>
+      </c>
+      <c r="U82">
+        <v>-10</v>
+      </c>
+      <c r="V82">
+        <v>106</v>
+      </c>
+      <c r="W82">
+        <v>-116</v>
+      </c>
       <c r="X82">
-        <v>303</v>
+        <v>-76</v>
       </c>
       <c r="Y82">
-        <v>-14</v>
+        <v>32</v>
       </c>
       <c r="Z82">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>0</v>
+      </c>
+      <c r="O83">
+        <v>-1</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83">
+        <v>0</v>
+      </c>
+      <c r="S83">
+        <v>-33</v>
+      </c>
+      <c r="T83">
+        <v>-120</v>
+      </c>
+      <c r="U83">
+        <v>4</v>
+      </c>
+      <c r="V83">
         <v>-10</v>
       </c>
-      <c r="AA82">
-        <v>106</v>
-      </c>
-      <c r="AB82">
-        <v>-116</v>
-      </c>
-      <c r="AC82">
-        <v>-76</v>
-      </c>
-      <c r="AD82">
-        <v>32</v>
-      </c>
-      <c r="AE82">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>0</v>
-      </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
-      <c r="C83">
-        <v>0</v>
-      </c>
-      <c r="D83">
-        <v>0</v>
-      </c>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="O83">
-        <v>-1</v>
-      </c>
-      <c r="P83">
-        <v>0</v>
-      </c>
-      <c r="Q83">
-        <v>0</v>
+      <c r="W83">
+        <v>40</v>
       </c>
       <c r="X83">
-        <v>-33</v>
+        <v>64</v>
       </c>
       <c r="Y83">
+        <v>-28</v>
+      </c>
+      <c r="Z83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>0</v>
+      </c>
+      <c r="O84">
+        <v>-1</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>0</v>
+      </c>
+      <c r="S84">
+        <v>52</v>
+      </c>
+      <c r="T84">
+        <v>-18</v>
+      </c>
+      <c r="U84">
+        <v>-16</v>
+      </c>
+      <c r="V84">
+        <v>-94</v>
+      </c>
+      <c r="W84">
+        <v>-126</v>
+      </c>
+      <c r="X84">
+        <v>98</v>
+      </c>
+      <c r="Y84">
+        <v>-6</v>
+      </c>
+      <c r="Z84">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <v>-1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>1</v>
+      </c>
+      <c r="P85">
+        <v>1</v>
+      </c>
+      <c r="Q85">
+        <v>0</v>
+      </c>
+      <c r="S85">
+        <v>22</v>
+      </c>
+      <c r="T85">
+        <v>-18</v>
+      </c>
+      <c r="U85">
+        <v>-121</v>
+      </c>
+      <c r="V85">
+        <v>0</v>
+      </c>
+      <c r="W85">
+        <v>0</v>
+      </c>
+      <c r="X85">
+        <v>-118</v>
+      </c>
+      <c r="Y85">
+        <v>-40</v>
+      </c>
+      <c r="Z85">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>-1</v>
+      </c>
+      <c r="B86">
+        <v>-1</v>
+      </c>
+      <c r="C86">
+        <v>-1</v>
+      </c>
+      <c r="D86">
+        <v>-1</v>
+      </c>
+      <c r="E86">
+        <v>-1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>-1</v>
+      </c>
+      <c r="N86">
+        <v>-1</v>
+      </c>
+      <c r="O86">
+        <v>1</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>0</v>
+      </c>
+      <c r="S86">
+        <v>-12</v>
+      </c>
+      <c r="T86">
+        <v>74</v>
+      </c>
+      <c r="U86">
+        <v>-20</v>
+      </c>
+      <c r="V86">
+        <v>0</v>
+      </c>
+      <c r="W86">
+        <v>0</v>
+      </c>
+      <c r="X86">
+        <v>-118</v>
+      </c>
+      <c r="Y86">
+        <v>42</v>
+      </c>
+      <c r="Z86">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <v>-1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>-1</v>
+      </c>
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>0</v>
+      </c>
+      <c r="S87">
+        <v>84</v>
+      </c>
+      <c r="T87">
+        <v>-12</v>
+      </c>
+      <c r="U87">
+        <v>-20</v>
+      </c>
+      <c r="V87">
+        <v>70</v>
+      </c>
+      <c r="W87">
+        <v>-22</v>
+      </c>
+      <c r="X87">
+        <v>64</v>
+      </c>
+      <c r="Y87">
+        <v>-54</v>
+      </c>
+      <c r="Z87">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <v>-1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>0</v>
+      </c>
+      <c r="O88">
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88">
+        <v>0</v>
+      </c>
+      <c r="S88">
+        <v>-11</v>
+      </c>
+      <c r="T88">
+        <v>-114</v>
+      </c>
+      <c r="U88">
+        <v>-104</v>
+      </c>
+      <c r="V88">
         <v>-120</v>
       </c>
-      <c r="Z83">
-        <v>4</v>
-      </c>
-      <c r="AA83">
+      <c r="W88">
+        <v>-122</v>
+      </c>
+      <c r="X88">
+        <v>-124</v>
+      </c>
+      <c r="Y88">
+        <v>-105</v>
+      </c>
+      <c r="Z88">
+        <v>-9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>0</v>
+      </c>
+      <c r="O89">
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89">
+        <v>0</v>
+      </c>
+      <c r="S89">
+        <v>177</v>
+      </c>
+      <c r="T89">
         <v>-10</v>
       </c>
-      <c r="AB83">
-        <v>40</v>
-      </c>
-      <c r="AC83">
-        <v>64</v>
-      </c>
-      <c r="AD83">
-        <v>-28</v>
-      </c>
-      <c r="AE83">
+      <c r="U89">
+        <v>120</v>
+      </c>
+      <c r="V89">
+        <v>-22</v>
+      </c>
+      <c r="W89">
+        <v>150</v>
+      </c>
+      <c r="X89">
+        <v>-32</v>
+      </c>
+      <c r="Y89">
+        <v>76</v>
+      </c>
+      <c r="Z89">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="S91" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>0</v>
-      </c>
-      <c r="B84">
-        <v>0</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-      <c r="E84">
-        <v>0</v>
-      </c>
-      <c r="F84">
-        <v>0</v>
-      </c>
-      <c r="G84">
-        <v>0</v>
-      </c>
-      <c r="H84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>0</v>
-      </c>
-      <c r="L84">
-        <v>1</v>
-      </c>
-      <c r="M84">
-        <v>0</v>
-      </c>
-      <c r="N84">
-        <v>0</v>
-      </c>
-      <c r="O84">
-        <v>-1</v>
-      </c>
-      <c r="P84">
-        <v>0</v>
-      </c>
-      <c r="Q84">
-        <v>0</v>
-      </c>
-      <c r="X84">
-        <v>52</v>
-      </c>
-      <c r="Y84">
-        <v>-18</v>
-      </c>
-      <c r="Z84">
-        <v>-16</v>
-      </c>
-      <c r="AA84">
-        <v>-94</v>
-      </c>
-      <c r="AB84">
-        <v>-126</v>
-      </c>
-      <c r="AC84">
-        <v>98</v>
-      </c>
-      <c r="AD84">
-        <v>-6</v>
-      </c>
-      <c r="AE84">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>0</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
-      </c>
-      <c r="C85">
-        <v>0</v>
-      </c>
-      <c r="D85">
-        <v>-1</v>
-      </c>
-      <c r="E85">
-        <v>1</v>
-      </c>
-      <c r="F85">
-        <v>0</v>
-      </c>
-      <c r="G85">
-        <v>0</v>
-      </c>
-      <c r="H85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>0</v>
-      </c>
-      <c r="L85">
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <v>1</v>
-      </c>
-      <c r="N85">
-        <v>1</v>
-      </c>
-      <c r="O85">
-        <v>1</v>
-      </c>
-      <c r="P85">
-        <v>1</v>
-      </c>
-      <c r="Q85">
-        <v>0</v>
-      </c>
-      <c r="X85">
-        <v>22</v>
-      </c>
-      <c r="Y85">
-        <v>-18</v>
-      </c>
-      <c r="Z85">
-        <v>-121</v>
-      </c>
-      <c r="AA85">
-        <v>0</v>
-      </c>
-      <c r="AB85">
-        <v>0</v>
-      </c>
-      <c r="AC85">
-        <v>-118</v>
-      </c>
-      <c r="AD85">
-        <v>-40</v>
-      </c>
-      <c r="AE85">
-        <v>-44</v>
-      </c>
-    </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>-1</v>
-      </c>
-      <c r="B86">
-        <v>-1</v>
-      </c>
-      <c r="C86">
-        <v>-1</v>
-      </c>
-      <c r="D86">
-        <v>-1</v>
-      </c>
-      <c r="E86">
-        <v>-1</v>
-      </c>
-      <c r="F86">
-        <v>1</v>
-      </c>
-      <c r="G86">
-        <v>0</v>
-      </c>
-      <c r="H86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>0</v>
-      </c>
-      <c r="L86">
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <v>-1</v>
-      </c>
-      <c r="N86">
-        <v>-1</v>
-      </c>
-      <c r="O86">
-        <v>1</v>
-      </c>
-      <c r="P86">
-        <v>0</v>
-      </c>
-      <c r="Q86">
-        <v>0</v>
-      </c>
-      <c r="X86">
-        <v>-12</v>
-      </c>
-      <c r="Y86">
-        <v>74</v>
-      </c>
-      <c r="Z86">
-        <v>-20</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-      <c r="AB86">
-        <v>0</v>
-      </c>
-      <c r="AC86">
-        <v>-118</v>
-      </c>
-      <c r="AD86">
-        <v>42</v>
-      </c>
-      <c r="AE86">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>0</v>
-      </c>
-      <c r="B87">
-        <v>0</v>
-      </c>
-      <c r="C87">
-        <v>-1</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-      <c r="E87">
-        <v>0</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-      <c r="G87">
-        <v>0</v>
-      </c>
-      <c r="H87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>0</v>
-      </c>
-      <c r="L87">
-        <v>-1</v>
-      </c>
-      <c r="M87">
-        <v>0</v>
-      </c>
-      <c r="N87">
-        <v>1</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87">
-        <v>0</v>
-      </c>
-      <c r="Q87">
-        <v>0</v>
-      </c>
-      <c r="X87">
-        <v>84</v>
-      </c>
-      <c r="Y87">
-        <v>-12</v>
-      </c>
-      <c r="Z87">
-        <v>-20</v>
-      </c>
-      <c r="AA87">
-        <v>70</v>
-      </c>
-      <c r="AB87">
-        <v>-22</v>
-      </c>
-      <c r="AC87">
-        <v>64</v>
-      </c>
-      <c r="AD87">
-        <v>-54</v>
-      </c>
-      <c r="AE87">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>0</v>
-      </c>
-      <c r="B88">
-        <v>0</v>
-      </c>
-      <c r="C88">
-        <v>-1</v>
-      </c>
-      <c r="D88">
-        <v>0</v>
-      </c>
-      <c r="E88">
-        <v>0</v>
-      </c>
-      <c r="F88">
-        <v>1</v>
-      </c>
-      <c r="G88">
-        <v>0</v>
-      </c>
-      <c r="H88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>0</v>
-      </c>
-      <c r="L88">
-        <v>0</v>
-      </c>
-      <c r="M88">
-        <v>0</v>
-      </c>
-      <c r="N88">
-        <v>0</v>
-      </c>
-      <c r="O88">
-        <v>0</v>
-      </c>
-      <c r="P88">
-        <v>0</v>
-      </c>
-      <c r="Q88">
-        <v>0</v>
-      </c>
-      <c r="X88">
-        <v>-11</v>
-      </c>
-      <c r="Y88">
-        <v>-114</v>
-      </c>
-      <c r="Z88">
-        <v>-104</v>
-      </c>
-      <c r="AA88">
-        <v>-120</v>
-      </c>
-      <c r="AB88">
-        <v>-122</v>
-      </c>
-      <c r="AC88">
-        <v>-124</v>
-      </c>
-      <c r="AD88">
-        <v>-105</v>
-      </c>
-      <c r="AE88">
-        <v>-9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>0</v>
-      </c>
-      <c r="B89">
-        <v>0</v>
-      </c>
-      <c r="C89">
-        <v>0</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-      <c r="E89">
-        <v>0</v>
-      </c>
-      <c r="F89">
-        <v>0</v>
-      </c>
-      <c r="G89">
-        <v>0</v>
-      </c>
-      <c r="H89">
-        <v>0</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>0</v>
-      </c>
-      <c r="L89">
-        <v>0</v>
-      </c>
-      <c r="M89">
-        <v>0</v>
-      </c>
-      <c r="N89">
-        <v>0</v>
-      </c>
-      <c r="O89">
-        <v>0</v>
-      </c>
-      <c r="P89">
-        <v>0</v>
-      </c>
-      <c r="Q89">
-        <v>0</v>
-      </c>
-      <c r="X89">
-        <v>177</v>
-      </c>
-      <c r="Y89">
-        <v>-10</v>
-      </c>
-      <c r="Z89">
-        <v>120</v>
-      </c>
-      <c r="AA89">
-        <v>-22</v>
-      </c>
-      <c r="AB89">
-        <v>150</v>
-      </c>
-      <c r="AC89">
-        <v>-32</v>
-      </c>
-      <c r="AD89">
-        <v>76</v>
-      </c>
-      <c r="AE89">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="X91" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
-      <c r="AA91" s="2"/>
-      <c r="AB91" s="2"/>
-      <c r="AC91" s="2"/>
-      <c r="AD91" s="2"/>
-      <c r="AE91" s="2"/>
-    </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>0</v>
       </c>
@@ -6462,32 +6554,32 @@
       <c r="Q92">
         <v>0</v>
       </c>
+      <c r="S92">
+        <v>855</v>
+      </c>
+      <c r="T92">
+        <v>199</v>
+      </c>
+      <c r="U92">
+        <v>16</v>
+      </c>
+      <c r="V92">
+        <v>-178</v>
+      </c>
+      <c r="W92">
+        <v>168</v>
+      </c>
       <c r="X92">
-        <v>855</v>
+        <v>-134</v>
       </c>
       <c r="Y92">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="Z92">
-        <v>16</v>
-      </c>
-      <c r="AA92">
-        <v>-178</v>
-      </c>
-      <c r="AB92">
-        <v>168</v>
-      </c>
-      <c r="AC92">
-        <v>-134</v>
-      </c>
-      <c r="AD92">
-        <v>78</v>
-      </c>
-      <c r="AE92">
         <v>798</v>
       </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>0</v>
       </c>
@@ -6536,476 +6628,476 @@
       <c r="Q93">
         <v>0</v>
       </c>
+      <c r="S93">
+        <v>-132</v>
+      </c>
+      <c r="T93">
+        <v>-290</v>
+      </c>
+      <c r="U93">
+        <v>46</v>
+      </c>
+      <c r="V93">
+        <v>88</v>
+      </c>
+      <c r="W93">
+        <v>12</v>
+      </c>
       <c r="X93">
+        <v>148</v>
+      </c>
+      <c r="Y93">
+        <v>-232</v>
+      </c>
+      <c r="Z93">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>1</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0</v>
+      </c>
+      <c r="O94">
+        <v>-1</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94">
+        <v>0</v>
+      </c>
+      <c r="S94">
+        <v>184</v>
+      </c>
+      <c r="T94">
+        <v>-174</v>
+      </c>
+      <c r="U94">
+        <v>-18</v>
+      </c>
+      <c r="V94">
+        <v>-254</v>
+      </c>
+      <c r="W94">
+        <v>-304</v>
+      </c>
+      <c r="X94">
+        <v>-300</v>
+      </c>
+      <c r="Y94">
+        <v>-42</v>
+      </c>
+      <c r="Z94">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <v>-1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95">
+        <v>1</v>
+      </c>
+      <c r="P95">
+        <v>1</v>
+      </c>
+      <c r="Q95">
+        <v>0</v>
+      </c>
+      <c r="S95">
+        <v>-28</v>
+      </c>
+      <c r="T95">
+        <v>-24</v>
+      </c>
+      <c r="U95">
+        <v>46</v>
+      </c>
+      <c r="V95">
+        <v>0</v>
+      </c>
+      <c r="W95">
+        <v>0</v>
+      </c>
+      <c r="X95">
+        <v>-10</v>
+      </c>
+      <c r="Y95">
+        <v>154</v>
+      </c>
+      <c r="Z95">
+        <v>-68</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>-1</v>
+      </c>
+      <c r="B96">
+        <v>-1</v>
+      </c>
+      <c r="C96">
+        <v>-1</v>
+      </c>
+      <c r="D96">
+        <v>-1</v>
+      </c>
+      <c r="E96">
+        <v>-1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>-1</v>
+      </c>
+      <c r="N96">
+        <v>-1</v>
+      </c>
+      <c r="O96">
+        <v>1</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <v>0</v>
+      </c>
+      <c r="S96">
+        <v>-24</v>
+      </c>
+      <c r="T96">
+        <v>-262</v>
+      </c>
+      <c r="U96">
+        <v>-4</v>
+      </c>
+      <c r="V96">
+        <v>0</v>
+      </c>
+      <c r="W96">
+        <v>0</v>
+      </c>
+      <c r="X96">
+        <v>-92</v>
+      </c>
+      <c r="Y96">
+        <v>-184</v>
+      </c>
+      <c r="Z96">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <v>-1</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>-1</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>-1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>-1</v>
+      </c>
+      <c r="O97">
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97">
+        <v>0</v>
+      </c>
+      <c r="S97">
+        <v>144</v>
+      </c>
+      <c r="T97">
+        <v>-6</v>
+      </c>
+      <c r="U97">
+        <v>34</v>
+      </c>
+      <c r="V97">
+        <v>-6</v>
+      </c>
+      <c r="W97">
+        <v>-154</v>
+      </c>
+      <c r="X97">
+        <v>270</v>
+      </c>
+      <c r="Y97">
+        <v>-262</v>
+      </c>
+      <c r="Z97">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <v>-1</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>-1</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>-1</v>
+      </c>
+      <c r="O98">
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98">
+        <v>0</v>
+      </c>
+      <c r="S98">
         <v>-132</v>
       </c>
-      <c r="Y93">
-        <v>-290</v>
-      </c>
-      <c r="Z93">
-        <v>46</v>
-      </c>
-      <c r="AA93">
-        <v>88</v>
-      </c>
-      <c r="AB93">
-        <v>12</v>
-      </c>
-      <c r="AC93">
-        <v>148</v>
-      </c>
-      <c r="AD93">
-        <v>-232</v>
-      </c>
-      <c r="AE93">
-        <v>-252</v>
-      </c>
-    </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>0</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94">
-        <v>0</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94">
-        <v>0</v>
-      </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <v>0</v>
-      </c>
-      <c r="H94">
-        <v>0</v>
-      </c>
-      <c r="J94">
-        <v>0</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>1</v>
-      </c>
-      <c r="M94">
-        <v>0</v>
-      </c>
-      <c r="N94">
-        <v>0</v>
-      </c>
-      <c r="O94">
-        <v>-1</v>
-      </c>
-      <c r="P94">
-        <v>0</v>
-      </c>
-      <c r="Q94">
-        <v>0</v>
-      </c>
-      <c r="X94">
-        <v>184</v>
-      </c>
-      <c r="Y94">
-        <v>-174</v>
-      </c>
-      <c r="Z94">
-        <v>-18</v>
-      </c>
-      <c r="AA94">
-        <v>-254</v>
-      </c>
-      <c r="AB94">
-        <v>-304</v>
-      </c>
-      <c r="AC94">
-        <v>-300</v>
-      </c>
-      <c r="AD94">
-        <v>-42</v>
-      </c>
-      <c r="AE94">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>0</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95">
-        <v>0</v>
-      </c>
-      <c r="D95">
-        <v>-1</v>
-      </c>
-      <c r="E95">
-        <v>1</v>
-      </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <v>0</v>
-      </c>
-      <c r="H95">
-        <v>0</v>
-      </c>
-      <c r="J95">
-        <v>0</v>
-      </c>
-      <c r="K95">
-        <v>0</v>
-      </c>
-      <c r="L95">
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <v>1</v>
-      </c>
-      <c r="N95">
-        <v>1</v>
-      </c>
-      <c r="O95">
-        <v>1</v>
-      </c>
-      <c r="P95">
-        <v>1</v>
-      </c>
-      <c r="Q95">
-        <v>0</v>
-      </c>
-      <c r="X95">
+      <c r="T98">
+        <v>-288</v>
+      </c>
+      <c r="U98">
+        <v>-112</v>
+      </c>
+      <c r="V98">
+        <v>200</v>
+      </c>
+      <c r="W98">
+        <v>-306</v>
+      </c>
+      <c r="X98">
+        <v>-248</v>
+      </c>
+      <c r="Y98">
+        <v>-332</v>
+      </c>
+      <c r="Z98">
+        <v>-108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>0</v>
+      </c>
+      <c r="O99">
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99">
+        <v>0</v>
+      </c>
+      <c r="S99">
+        <v>803</v>
+      </c>
+      <c r="T99">
+        <v>-268</v>
+      </c>
+      <c r="U99">
+        <v>180</v>
+      </c>
+      <c r="V99">
         <v>-28</v>
       </c>
-      <c r="Y95">
-        <v>-24</v>
-      </c>
-      <c r="Z95">
-        <v>46</v>
-      </c>
-      <c r="AA95">
-        <v>0</v>
-      </c>
-      <c r="AB95">
-        <v>0</v>
-      </c>
-      <c r="AC95">
-        <v>-10</v>
-      </c>
-      <c r="AD95">
-        <v>154</v>
-      </c>
-      <c r="AE95">
-        <v>-68</v>
-      </c>
-    </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>-1</v>
-      </c>
-      <c r="B96">
-        <v>-1</v>
-      </c>
-      <c r="C96">
-        <v>-1</v>
-      </c>
-      <c r="D96">
-        <v>-1</v>
-      </c>
-      <c r="E96">
-        <v>-1</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
-      </c>
-      <c r="H96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
-      <c r="K96">
-        <v>0</v>
-      </c>
-      <c r="L96">
-        <v>0</v>
-      </c>
-      <c r="M96">
-        <v>-1</v>
-      </c>
-      <c r="N96">
-        <v>-1</v>
-      </c>
-      <c r="O96">
-        <v>1</v>
-      </c>
-      <c r="P96">
-        <v>0</v>
-      </c>
-      <c r="Q96">
-        <v>0</v>
-      </c>
-      <c r="X96">
-        <v>-24</v>
-      </c>
-      <c r="Y96">
-        <v>-262</v>
-      </c>
-      <c r="Z96">
-        <v>-4</v>
-      </c>
-      <c r="AA96">
-        <v>0</v>
-      </c>
-      <c r="AB96">
-        <v>0</v>
-      </c>
-      <c r="AC96">
-        <v>-92</v>
-      </c>
-      <c r="AD96">
-        <v>-184</v>
-      </c>
-      <c r="AE96">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>0</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97">
-        <v>-1</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97">
-        <v>0</v>
-      </c>
-      <c r="F97">
-        <v>-1</v>
-      </c>
-      <c r="G97">
-        <v>0</v>
-      </c>
-      <c r="H97">
-        <v>0</v>
-      </c>
-      <c r="J97">
-        <v>0</v>
-      </c>
-      <c r="K97">
-        <v>0</v>
-      </c>
-      <c r="L97">
-        <v>-1</v>
-      </c>
-      <c r="M97">
-        <v>0</v>
-      </c>
-      <c r="N97">
-        <v>-1</v>
-      </c>
-      <c r="O97">
-        <v>0</v>
-      </c>
-      <c r="P97">
-        <v>0</v>
-      </c>
-      <c r="Q97">
-        <v>0</v>
-      </c>
-      <c r="X97">
-        <v>144</v>
-      </c>
-      <c r="Y97">
-        <v>-6</v>
-      </c>
-      <c r="Z97">
-        <v>34</v>
-      </c>
-      <c r="AA97">
-        <v>-6</v>
-      </c>
-      <c r="AB97">
-        <v>-154</v>
-      </c>
-      <c r="AC97">
-        <v>270</v>
-      </c>
-      <c r="AD97">
-        <v>-262</v>
-      </c>
-      <c r="AE97">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>0</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98">
-        <v>-1</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98">
-        <v>0</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-      <c r="G98">
-        <v>-1</v>
-      </c>
-      <c r="H98">
-        <v>0</v>
-      </c>
-      <c r="J98">
-        <v>0</v>
-      </c>
-      <c r="K98">
-        <v>0</v>
-      </c>
-      <c r="L98">
-        <v>0</v>
-      </c>
-      <c r="M98">
-        <v>0</v>
-      </c>
-      <c r="N98">
-        <v>-1</v>
-      </c>
-      <c r="O98">
-        <v>0</v>
-      </c>
-      <c r="P98">
-        <v>0</v>
-      </c>
-      <c r="Q98">
-        <v>0</v>
-      </c>
-      <c r="X98">
-        <v>-132</v>
-      </c>
-      <c r="Y98">
-        <v>-288</v>
-      </c>
-      <c r="Z98">
-        <v>-112</v>
-      </c>
-      <c r="AA98">
-        <v>200</v>
-      </c>
-      <c r="AB98">
-        <v>-306</v>
-      </c>
-      <c r="AC98">
-        <v>-248</v>
-      </c>
-      <c r="AD98">
-        <v>-332</v>
-      </c>
-      <c r="AE98">
-        <v>-108</v>
-      </c>
-    </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>0</v>
-      </c>
-      <c r="B99">
-        <v>0</v>
-      </c>
-      <c r="C99">
-        <v>0</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99">
-        <v>0</v>
-      </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0</v>
-      </c>
-      <c r="H99">
-        <v>0</v>
-      </c>
-      <c r="J99">
-        <v>0</v>
-      </c>
-      <c r="K99">
-        <v>0</v>
-      </c>
-      <c r="L99">
-        <v>0</v>
-      </c>
-      <c r="M99">
-        <v>0</v>
-      </c>
-      <c r="N99">
-        <v>0</v>
-      </c>
-      <c r="O99">
-        <v>0</v>
-      </c>
-      <c r="P99">
-        <v>0</v>
-      </c>
-      <c r="Q99">
-        <v>0</v>
+      <c r="W99">
+        <v>-56</v>
       </c>
       <c r="X99">
-        <v>803</v>
+        <v>280</v>
       </c>
       <c r="Y99">
-        <v>-268</v>
+        <v>-250</v>
       </c>
       <c r="Z99">
-        <v>180</v>
-      </c>
-      <c r="AA99">
-        <v>-28</v>
-      </c>
-      <c r="AB99">
-        <v>-56</v>
-      </c>
-      <c r="AC99">
-        <v>280</v>
-      </c>
-      <c r="AD99">
-        <v>-250</v>
-      </c>
-      <c r="AE99">
         <v>805</v>
       </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>0</v>
       </c>
@@ -7055,7 +7147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>0</v>
       </c>
@@ -7105,7 +7197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>0</v>
       </c>
@@ -7155,7 +7247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>0</v>
       </c>
@@ -7205,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>-1</v>
       </c>
@@ -7255,7 +7347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>0</v>
       </c>
@@ -7305,7 +7397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>0</v>
       </c>
@@ -7355,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>0</v>
       </c>
@@ -7405,7 +7497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>0</v>
       </c>
@@ -27407,20 +27499,20 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="X61:AE61"/>
-    <mergeCell ref="X71:AE71"/>
-    <mergeCell ref="X81:AE81"/>
-    <mergeCell ref="X91:AE91"/>
-    <mergeCell ref="X1:AE1"/>
-    <mergeCell ref="X11:AE11"/>
+    <mergeCell ref="S61:Z61"/>
+    <mergeCell ref="S71:Z71"/>
+    <mergeCell ref="S81:Z81"/>
+    <mergeCell ref="S91:Z91"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S11:Z11"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="X21:AE21"/>
-    <mergeCell ref="X31:AE31"/>
-    <mergeCell ref="X41:AE41"/>
-    <mergeCell ref="X51:AE51"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="S31:Z31"/>
+    <mergeCell ref="S41:Z41"/>
+    <mergeCell ref="S51:Z51"/>
     <mergeCell ref="J1:Q1"/>
   </mergeCells>
-  <conditionalFormatting sqref="X32:AE39">
+  <conditionalFormatting sqref="S32:Z39">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -27432,7 +27524,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X42:AE49">
+  <conditionalFormatting sqref="S42:Z49">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -27444,7 +27536,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X52:AE59">
+  <conditionalFormatting sqref="S52:Z59">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -27456,7 +27548,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X62:AE69">
+  <conditionalFormatting sqref="S62:Z69">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -27468,7 +27560,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X72:AE79">
+  <conditionalFormatting sqref="S72:Z79">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -27480,7 +27572,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X82:AE89">
+  <conditionalFormatting sqref="S82:Z89">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -27492,7 +27584,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X92:AE99">
+  <conditionalFormatting sqref="S92:Z99">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -27504,7 +27596,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG28:AN35">
+  <conditionalFormatting sqref="AB28:AG35 AI28:AI35">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -27516,7 +27608,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X22:AE29">
+  <conditionalFormatting sqref="S22:Z29">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -27528,7 +27620,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X12:AE19">
+  <conditionalFormatting sqref="S12:Z19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -27540,7 +27632,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X2:AE9">
+  <conditionalFormatting sqref="S2:Z9">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -27552,8 +27644,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:W609">
-    <cfRule type="colorScale" priority="16">
+  <conditionalFormatting sqref="A2:R609">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/reversi_othello/game_analysis.xlsx
+++ b/reversi_othello/game_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2808" yWindow="0" windowWidth="17256" windowHeight="7008"/>
+    <workbookView xWindow="3744" yWindow="0" windowWidth="17256" windowHeight="7008"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,13 +77,13 @@
     <t>increase the weight by 1 and at the other positions, decrease it by 1. Nothing to be done at tie positions</t>
   </si>
   <si>
-    <t>When one of the weights is played against a random player, the results are still equal, ie, the machine player using</t>
+    <t>More tweaking is required to incorporate the state of the game into updating the decisions.</t>
   </si>
   <si>
-    <t>learned wights shows no superiority over a random player.</t>
+    <t>When one of the weights is played against a random player, the results are quite suprising as whoever's white seems to</t>
   </si>
   <si>
-    <t>More tweaking is required to incorporate the state of the game into updating the decisions.</t>
+    <t>winning a lot of games, need to check what happens if the comp player is always white</t>
   </si>
 </sst>
 </file>
@@ -649,22 +649,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>567267</xdr:colOff>
+      <xdr:colOff>211666</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>62088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>313267</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>84668</xdr:rowOff>
+      <xdr:colOff>474133</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>118533</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B3877C9-1616-4E33-B80D-500418E72D90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40ADF6B5-A5A4-4AE8-8355-DCEF812969DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -686,8 +686,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20074467" y="0"/>
-          <a:ext cx="7670800" cy="5113868"/>
+          <a:off x="19718866" y="62088"/>
+          <a:ext cx="8187267" cy="5458178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -998,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AX39" sqref="AX39"/>
+    <sheetView tabSelected="1" topLeftCell="AB17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AH38" sqref="AH38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3242,7 +3242,7 @@
         <v>-52</v>
       </c>
       <c r="AH36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.3">
@@ -3319,7 +3319,7 @@
         <v>74</v>
       </c>
       <c r="AH37" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.3">
@@ -3396,7 +3396,7 @@
         <v>-34</v>
       </c>
       <c r="AH38" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.3">
@@ -27499,18 +27499,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="S21:Z21"/>
+    <mergeCell ref="S31:Z31"/>
+    <mergeCell ref="S41:Z41"/>
+    <mergeCell ref="S51:Z51"/>
+    <mergeCell ref="J1:Q1"/>
     <mergeCell ref="S61:Z61"/>
     <mergeCell ref="S71:Z71"/>
     <mergeCell ref="S81:Z81"/>
     <mergeCell ref="S91:Z91"/>
     <mergeCell ref="S1:Z1"/>
     <mergeCell ref="S11:Z11"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="S21:Z21"/>
-    <mergeCell ref="S31:Z31"/>
-    <mergeCell ref="S41:Z41"/>
-    <mergeCell ref="S51:Z51"/>
-    <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <conditionalFormatting sqref="S32:Z39">
     <cfRule type="colorScale" priority="11">

--- a/reversi_othello/game_analysis.xlsx
+++ b/reversi_othello/game_analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3744" yWindow="0" windowWidth="17256" windowHeight="7008"/>
+    <workbookView xWindow="4680" yWindow="0" windowWidth="17256" windowHeight="7008"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Weights Sim 2</t>
   </si>
@@ -80,10 +80,13 @@
     <t>More tweaking is required to incorporate the state of the game into updating the decisions.</t>
   </si>
   <si>
-    <t>When one of the weights is played against a random player, the results are quite suprising as whoever's white seems to</t>
+    <t>When one of the weights is played against a random player, the results are quite good as majority of the time</t>
   </si>
   <si>
-    <t>winning a lot of games, need to check what happens if the comp player is always white</t>
+    <t>the machine player with the learned weights is winning, so, in effect something has been learned, although not quite good enough</t>
+  </si>
+  <si>
+    <t>A decision tree of future game states might perform better, this learned weights player could be useful for teaching a neural network</t>
   </si>
 </sst>
 </file>
@@ -649,22 +652,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>211666</xdr:colOff>
+      <xdr:colOff>541867</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>62088</xdr:rowOff>
+      <xdr:rowOff>172154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
-      <xdr:colOff>474133</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>118533</xdr:rowOff>
+      <xdr:colOff>436035</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="15" name="Picture 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40ADF6B5-A5A4-4AE8-8355-DCEF812969DC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB0E1C61-5A7E-44BF-8880-C09F2CD69587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -686,8 +689,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19718866" y="62088"/>
-          <a:ext cx="8187267" cy="5458178"/>
+          <a:off x="20049067" y="172154"/>
+          <a:ext cx="7818968" cy="5212645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>135465</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>118532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694BC637-BEB2-4D0D-9ECC-6F1741B63ED8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20066000" y="5164665"/>
+          <a:ext cx="7797800" cy="5198534"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -998,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI609"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB17" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AH38" sqref="AH38"/>
+    <sheetView tabSelected="1" topLeftCell="AB37" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AH67" sqref="AH67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2856,9 +2909,6 @@
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
-      <c r="AH31" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32">
@@ -2933,11 +2983,8 @@
       <c r="Z32">
         <v>183</v>
       </c>
-      <c r="AH32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3010,11 +3057,8 @@
       <c r="Z33">
         <v>13</v>
       </c>
-      <c r="AH33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>0</v>
       </c>
@@ -3087,11 +3131,8 @@
       <c r="Z34">
         <v>-70</v>
       </c>
-      <c r="AH34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>0</v>
       </c>
@@ -3164,11 +3205,8 @@
       <c r="Z35">
         <v>66</v>
       </c>
-      <c r="AH35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>0</v>
       </c>
@@ -3241,11 +3279,8 @@
       <c r="Z36">
         <v>-52</v>
       </c>
-      <c r="AH36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>0</v>
       </c>
@@ -3318,11 +3353,8 @@
       <c r="Z37">
         <v>74</v>
       </c>
-      <c r="AH37" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0</v>
       </c>
@@ -3395,11 +3427,8 @@
       <c r="Z38">
         <v>-34</v>
       </c>
-      <c r="AH38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>0</v>
       </c>
@@ -3473,7 +3502,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.3">
       <c r="S41" s="2" t="s">
         <v>3</v>
       </c>
@@ -3485,7 +3514,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3559,7 +3588,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3633,7 +3662,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3707,7 +3736,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3781,7 +3810,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3855,7 +3884,7 @@
         <v>-175</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3929,7 +3958,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>0</v>
       </c>
@@ -4003,7 +4032,7 @@
         <v>-191</v>
       </c>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>0</v>
       </c>
@@ -4077,7 +4106,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
       <c r="S51" s="2" t="s">
         <v>4</v>
       </c>
@@ -4089,7 +4118,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>0</v>
       </c>
@@ -4163,7 +4192,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>0</v>
       </c>
@@ -4237,7 +4266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>0</v>
       </c>
@@ -4311,7 +4340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>0</v>
       </c>
@@ -4385,7 +4414,7 @@
         <v>-37</v>
       </c>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>0</v>
       </c>
@@ -4459,7 +4488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>0</v>
       </c>
@@ -4533,7 +4562,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>0</v>
       </c>
@@ -4606,8 +4635,11 @@
       <c r="Z58">
         <v>-32</v>
       </c>
-    </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AH58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>0</v>
       </c>
@@ -4680,8 +4712,16 @@
       <c r="Z59">
         <v>184</v>
       </c>
-    </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AH59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AH60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
       <c r="S61" s="2" t="s">
         <v>5</v>
       </c>
@@ -4692,8 +4732,11 @@
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
-    </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AH61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>0</v>
       </c>
@@ -4766,8 +4809,11 @@
       <c r="Z62">
         <v>272</v>
       </c>
-    </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AH62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>0</v>
       </c>
@@ -4840,8 +4886,11 @@
       <c r="Z63">
         <v>42</v>
       </c>
-    </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AH63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>0</v>
       </c>
@@ -4914,8 +4963,11 @@
       <c r="Z64">
         <v>-69</v>
       </c>
-    </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AH64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>0</v>
       </c>
@@ -4988,8 +5040,11 @@
       <c r="Z65">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AH65" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>0</v>
       </c>
@@ -5062,8 +5117,11 @@
       <c r="Z66">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AH66" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>0</v>
       </c>
@@ -5137,7 +5195,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>0</v>
       </c>
@@ -5211,7 +5269,7 @@
         <v>-85</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>0</v>
       </c>
@@ -5285,7 +5343,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
       <c r="S71" s="2" t="s">
         <v>6</v>
       </c>
@@ -5297,7 +5355,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>0</v>
       </c>
@@ -5371,7 +5429,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>0</v>
       </c>
@@ -5445,7 +5503,7 @@
         <v>-30</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>0</v>
       </c>
@@ -5519,7 +5577,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>0</v>
       </c>
@@ -5593,7 +5651,7 @@
         <v>-14</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>-1</v>
       </c>
@@ -5667,7 +5725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>0</v>
       </c>
@@ -5741,7 +5799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>0</v>
       </c>
@@ -5815,7 +5873,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>0</v>
       </c>
@@ -27499,18 +27557,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="S61:Z61"/>
+    <mergeCell ref="S71:Z71"/>
+    <mergeCell ref="S81:Z81"/>
+    <mergeCell ref="S91:Z91"/>
+    <mergeCell ref="S1:Z1"/>
+    <mergeCell ref="S11:Z11"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="S21:Z21"/>
     <mergeCell ref="S31:Z31"/>
     <mergeCell ref="S41:Z41"/>
     <mergeCell ref="S51:Z51"/>
     <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="S61:Z61"/>
-    <mergeCell ref="S71:Z71"/>
-    <mergeCell ref="S81:Z81"/>
-    <mergeCell ref="S91:Z91"/>
-    <mergeCell ref="S1:Z1"/>
-    <mergeCell ref="S11:Z11"/>
   </mergeCells>
   <conditionalFormatting sqref="S32:Z39">
     <cfRule type="colorScale" priority="11">
